--- a/export_calendar.xlsx
+++ b/export_calendar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="555">
   <si>
     <t>Events for the Month of January</t>
   </si>
@@ -98,7 +98,133 @@
     <t>MBRTG</t>
   </si>
   <si>
-    <t>(Rizal) Orientation of Field Officers for 2019 LGU Compliance Assessment</t>
+    <t>conduct of table assessment for 2019 LGU Compliance Assessment of MBCRPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-10 </t>
+  </si>
+  <si>
+    <t>Hotel Dominique, Tagaytay City, Cavite</t>
+  </si>
+  <si>
+    <t>ELOISA G. ROZUL, JAY-AR T. BELTRAN, BRIAN B. BALLON, MBRTG</t>
+  </si>
+  <si>
+    <t>Attendance in the conduct of Quality Assurance Inspection of Projects under FY2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-31 </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>fjiligan</t>
+  </si>
+  <si>
+    <t>Workshop on the Restructing of OPDS PMOs</t>
+  </si>
+  <si>
+    <t>Validation of 2019 Annual Reform Action Plan in Cavite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-07 </t>
+  </si>
+  <si>
+    <t>Validation of 2019 Annual Reform Action Plan in Quezon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-08 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-09 </t>
+  </si>
+  <si>
+    <t>Pilot Testing of PCF Validation Tools in Gumaca, Quezon</t>
+  </si>
+  <si>
+    <t>PCF National Consultative Conference in Vigan, Ilocos Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-15 </t>
+  </si>
+  <si>
+    <t>masaclutii</t>
+  </si>
+  <si>
+    <t>Training of Trainers (TOT) on Local Road Asset Management (LRAM) in Bohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-23 </t>
+  </si>
+  <si>
+    <t>Field Validation of LFPs in Talisay, Batangas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0000-00-00 </t>
+  </si>
+  <si>
+    <t>Training of Sector Assessment and Planning Workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-08-30 </t>
+  </si>
+  <si>
+    <t>Attendance to the Conduct of Government Procurement Updates (RA 9184) Training for Provincial Governments under CMGP Program with Engr. Angelito R. Cortuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-06 </t>
+  </si>
+  <si>
+    <t>Training-Workshop on Road Surveying with the Use of Civil 3D under CMGP Program</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-02 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-05 </t>
+  </si>
+  <si>
+    <t>Training-Workshop on Community-Based Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-03 </t>
+  </si>
+  <si>
+    <t>Training on Community-Based Maintenance Contracting Batch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-20 </t>
+  </si>
+  <si>
+    <t>Attendance in the seminar on enhancement of competence for administrative and other technical personnel towards greater public service</t>
   </si>
   <si>
     <t xml:space="preserve">2019-10-15 </t>
@@ -107,141 +233,6 @@
     <t xml:space="preserve">2019-10-16 </t>
   </si>
   <si>
-    <t>Rizal Provincial Capitol</t>
-  </si>
-  <si>
-    <t>FOs of Rizal, Kitch Karianne Gogolin &amp; Charene Joy Rapsing</t>
-  </si>
-  <si>
-    <t>conduct of table assessment for 2019 LGU Compliance Assessment of MBCRPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-10-08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-10-10 </t>
-  </si>
-  <si>
-    <t>Hotel Dominique, Tagaytay City, Cavite</t>
-  </si>
-  <si>
-    <t>ELOISA G. ROZUL, JAY-AR T. BELTRAN, BRIAN B. BALLON, MBRTG</t>
-  </si>
-  <si>
-    <t>Attendance in the conduct of Quality Assurance Inspection of Projects under FY2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-07-29 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-07-31 </t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>fjiligan</t>
-  </si>
-  <si>
-    <t>Workshop on the Restructing of OPDS PMOs</t>
-  </si>
-  <si>
-    <t>Validation of 2019 Annual Reform Action Plan in Cavite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-06 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-07 </t>
-  </si>
-  <si>
-    <t>Validation of 2019 Annual Reform Action Plan in Quezon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-08 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-09 </t>
-  </si>
-  <si>
-    <t>Pilot Testing of PCF Validation Tools in Gumaca, Quezon</t>
-  </si>
-  <si>
-    <t>PCF National Consultative Conference in Vigan, Ilocos Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-15 </t>
-  </si>
-  <si>
-    <t>masacluti</t>
-  </si>
-  <si>
-    <t>Training of Trainers (TOT) on Local Road Asset Management (LRAM) in Bohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-19 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-23 </t>
-  </si>
-  <si>
-    <t>Field Validation of LFPs in Talisay, Batangas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-22 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000-00-00 </t>
-  </si>
-  <si>
-    <t>Training of Sector Assessment and Planning Workshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-27 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-08-30 </t>
-  </si>
-  <si>
-    <t>Attendance to the Conduct of Government Procurement Updates (RA 9184) Training for Provincial Governments under CMGP Program with Engr. Angelito R. Cortuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-09-01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-09-06 </t>
-  </si>
-  <si>
-    <t>Training-Workshop on Road Surveying with the Use of Civil 3D under CMGP Program</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-09-02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-09-05 </t>
-  </si>
-  <si>
-    <t>Training-Workshop on Community-Based Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-09-03 </t>
-  </si>
-  <si>
-    <t>Training on Community-Based Maintenance Contracting Batch 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-09-17 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-09-20 </t>
-  </si>
-  <si>
-    <t>Attendance in the seminar on enhancement of competence for administrative and other technical personnel towards greater public service</t>
-  </si>
-  <si>
     <t>Brizo Hotel and Mountain View Resort, Kabangaan Rd., Brgy. Cabangaan, Silang, Cavite</t>
   </si>
   <si>
@@ -383,12 +374,6 @@
     <t>Batangas, Cavite, and Laguna</t>
   </si>
   <si>
-    <t>Capability Building for Investment Promotions</t>
-  </si>
-  <si>
-    <t>Jay Beltran</t>
-  </si>
-  <si>
     <t>CMGP TRAINING ON ROAD AND PLANNING AND DESIGN FUNDAMENTALS</t>
   </si>
   <si>
@@ -824,7 +809,7 @@
     <t>PDEA, RICTU</t>
   </si>
   <si>
-    <t>1st Quarter 2020 SCMDA Meetin</t>
+    <t>1st Quarter 2020 SCMDA Meeting</t>
   </si>
   <si>
     <t xml:space="preserve">2020-02-11 </t>
@@ -1578,12 +1563,6 @@
     <t>DILG RO (RD/ARD, LGMED Chief &amp; ADC, Stat I &amp; II, DMO III &amp; IV, Technical Staff – (8), Provincial LnB Presidents (6), Provincial/HUC Focal Persons (6)</t>
   </si>
   <si>
-    <t>1st Manila Bay Coordination Meeting</t>
-  </si>
-  <si>
-    <t>DILG-NAPOLCOM Center, Edsa Corner Quezon Avenue, Quezon City, 1104 Metro Manila, Philippines</t>
-  </si>
-  <si>
     <t>Awarding of Plaque of Recognition</t>
   </si>
   <si>
@@ -1617,15 +1596,6 @@
     <t>Christian Dacanay, Abel Fulgencio, Roslin Gutierrez &amp; Cherielyn Porras</t>
   </si>
   <si>
-    <t>1Q WQMA GB meeting</t>
-  </si>
-  <si>
-    <t>Amadeo, Cavite</t>
-  </si>
-  <si>
-    <t>CHERIELYN A. PORRAS, KRISTEL CATE V. FRANCISCO</t>
-  </si>
-  <si>
     <t>1st QUARTER RMFPC MEETING</t>
   </si>
   <si>
@@ -1638,25 +1608,13 @@
     <t>Christian Bontia</t>
   </si>
   <si>
-    <t>1st  QUARTER MEETING OF MANILA BAY REGIONAL TASK GROUP (MBRTG)</t>
-  </si>
-  <si>
-    <t>JAY-AR T. BELTRAN CHRISTIAN B. DACANAY ABEL J. FULGENCIO ROSLIN RACHEL G. GUTIERREZ CHERIELYN A. PORRAS DON PAOLO B. TEODORO KRISTEL CATE V. FRANCISCO JAN EMMANUEL M. GUSTILO II CHRISTOFFER D. BUNYI CHARENE JOY M. RAPSING CHRISTIAN ERIC D. BONTIA</t>
-  </si>
-  <si>
-    <t>1st Coordination Meeting of Manila Bay TWG</t>
-  </si>
-  <si>
-    <t>CHRISTIAN DACANAY ABEL FULGENCIO ROSLIN GUTIERREZ CHERIELYN PORRAS DON PAOLO TEODORO</t>
-  </si>
-  <si>
-    <t>test1</t>
+    <t>test</t>
   </si>
   <si>
     <t xml:space="preserve">2020-04-01 </t>
   </si>
   <si>
-    <t xml:space="preserve">2020-04-03 </t>
+    <t xml:space="preserve">2020-04-04 </t>
   </si>
   <si>
     <t>s</t>
@@ -1671,16 +1629,70 @@
     <t xml:space="preserve">2020-04-30 </t>
   </si>
   <si>
+    <t>kim</t>
+  </si>
+  <si>
+    <t>sdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-27 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1970-01-01 </t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>kimpoyd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-07 </t>
+  </si>
+  <si>
+    <t>test11W</t>
+  </si>
+  <si>
+    <t>Foorum and Workshop for Receiving and Sending LGUs (RGAF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-29 </t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>wdw</t>
+  </si>
+  <si>
+    <t>ddddd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>testssssss</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-01 </t>
+  </si>
+  <si>
+    <t>january1</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
     <t>sample11</t>
   </si>
   <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-16 </t>
-  </si>
-  <si>
-    <t>RF</t>
+    <t xml:space="preserve">2021-01-01 </t>
+  </si>
+  <si>
+    <t>aa</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2147,7 @@
   <dimension ref="A1:I239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G176" sqref="G176"/>
+      <selection activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2302,7 +2314,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>31</v>
@@ -2324,14 +2336,14 @@
       <c r="D12" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="17">
-        <v>10</v>
+      <c r="E12" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" customHeight="1" ht="14.45">
@@ -2339,367 +2351,367 @@
         <v>37</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9" customHeight="1" ht="14.45">
       <c r="A14" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:9" customHeight="1" ht="14.45">
       <c r="A15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>45</v>
-      </c>
       <c r="D15" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" customHeight="1" ht="14.45">
       <c r="A16" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:9" customHeight="1" ht="14.45">
       <c r="A17" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:9" customHeight="1" ht="14.45">
       <c r="A18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="D18" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:9" customHeight="1" ht="14.45">
       <c r="A19" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>56</v>
-      </c>
       <c r="D19" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" customHeight="1" ht="14.45">
       <c r="A20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="D20" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9" customHeight="1" ht="14.45">
       <c r="A21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="D21" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:9" customHeight="1" ht="14.45">
       <c r="A22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="D22" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:9" customHeight="1" ht="14.45">
       <c r="A23" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>40</v>
+      <c r="E25" s="17">
+        <v>23</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="D26" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="17">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E27" s="17">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="17">
+        <v>2</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="G28" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2707,321 +2719,321 @@
         <v>81</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" s="17">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E30" s="17">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E31" s="17">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E32" s="17">
-        <v>8</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>98</v>
+        <v>50</v>
+      </c>
+      <c r="F32" s="15">
+        <v>50</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E33" s="17">
-        <v>50</v>
-      </c>
-      <c r="F33" s="15">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E34" s="17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D35" s="15" t="s">
         <v>111</v>
       </c>
       <c r="E35" s="17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="E36" s="17">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E37" s="17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="E38" s="17">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="15" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="E39" s="17">
-        <v>6</v>
+        <v>361</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="17">
+        <v>34</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G40" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="17">
-        <v>333</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E41" s="17">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E42" s="17">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3029,22 +3041,22 @@
         <v>141</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="E43" s="17">
         <v>0</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3052,68 +3064,68 @@
         <v>144</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E44" s="17">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E45" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D46" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="17">
+        <v>0</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="E46" s="17">
-        <v>100</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="G46" s="17" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3121,22 +3133,22 @@
         <v>152</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>153</v>
+        <v>54</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E47" s="17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F47" s="15" t="s">
         <v>154</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -3144,59 +3156,59 @@
         <v>155</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E48" s="17">
         <v>0</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E49" s="17">
         <v>0</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>161</v>
+        <v>54</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E50" s="17">
         <v>0</v>
@@ -3205,7 +3217,7 @@
         <v>162</v>
       </c>
       <c r="G50" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -3213,22 +3225,22 @@
         <v>163</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="16" t="s">
-        <v>165</v>
-      </c>
       <c r="D51" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E51" s="17">
         <v>0</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -3236,22 +3248,22 @@
         <v>166</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E52" s="17">
         <v>0</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -3259,395 +3271,395 @@
         <v>168</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E53" s="17">
         <v>0</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>170</v>
+        <v>35</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="D54" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>40</v>
-      </c>
       <c r="E54" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="G54" s="17" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>125</v>
+        <v>176</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="E55" s="17">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="G55" s="17" t="s">
-        <v>53</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="15" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E56" s="17">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G56" s="17" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E57" s="17">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G57" s="17" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E58" s="17">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G58" s="17" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E59" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G59" s="17" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E60" s="17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F60" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G60" s="17" t="s">
         <v>194</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E61" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G61" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="15" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E62" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G62" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="15" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="D63" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E63" s="17">
+        <v>4</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="E63" s="17">
-        <v>3</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>206</v>
-      </c>
       <c r="G63" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="15" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D64" s="15" t="s">
         <v>209</v>
       </c>
       <c r="E64" s="17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>210</v>
       </c>
       <c r="G64" s="17" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="15" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E65" s="17">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>199</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E66" s="17">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G66" s="17" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E67" s="17">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G67" s="17" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E68" s="17">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G68" s="17" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="15" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E69" s="17">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="15" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="B70" s="16" t="s">
         <v>230</v>
@@ -3659,7 +3671,7 @@
         <v>231</v>
       </c>
       <c r="E70" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>232</v>
@@ -3670,19 +3682,19 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>233</v>
       </c>
       <c r="E71" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>234</v>
@@ -3693,22 +3705,22 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D72" s="15" t="s">
+      <c r="E72" s="17">
+        <v>2</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="E72" s="17">
-        <v>4</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="G72" s="17" t="s">
         <v>23</v>
@@ -3716,22 +3728,22 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E73" s="17">
         <v>2</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G73" s="17" t="s">
         <v>23</v>
@@ -3739,19 +3751,19 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="15" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>176</v>
+        <v>217</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>240</v>
       </c>
       <c r="E74" s="17">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>241</v>
@@ -3762,22 +3774,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="15" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E75" s="17">
         <v>2</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G75" s="17" t="s">
         <v>23</v>
@@ -3785,91 +3797,91 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E76" s="17">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G76" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="15" t="s">
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E77" s="17">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G77" s="17" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="15" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B78" s="16" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E78" s="17">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G78" s="17" t="s">
-        <v>13</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="15" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E79" s="17">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G79" s="17" t="s">
         <v>13</v>
@@ -3877,163 +3889,163 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="15" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E80" s="17">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G80" s="17" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="15" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E81" s="17">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G81" s="17" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="15" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E82" s="17">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G82" s="17" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="15" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E83" s="17">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G83" s="17" t="s">
-        <v>88</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="15" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B84" s="16" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E84" s="17">
-        <v>24</v>
+        <v>400</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G84" s="17" t="s">
-        <v>199</v>
+        <v>287</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="15" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="E85" s="17">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="G85" s="17" t="s">
-        <v>273</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E86" s="17">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>292</v>
+        <v>211</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -4041,96 +4053,96 @@
         <v>293</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>275</v>
+        <v>54</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="E87" s="17">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>26</v>
+        <v>295</v>
       </c>
       <c r="G87" s="17" t="s">
-        <v>23</v>
+        <v>211</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>59</v>
+        <v>297</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E88" s="17">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F88" s="15" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G88" s="17" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="15" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>59</v>
+        <v>301</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="E89" s="17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F89" s="15" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G89" s="17" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="15" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E90" s="17">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F90" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G90" s="17" t="s">
-        <v>273</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="15" t="s">
-        <v>305</v>
+        <v>184</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>306</v>
@@ -4145,27 +4157,27 @@
         <v>2</v>
       </c>
       <c r="F91" s="15" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G91" s="17" t="s">
-        <v>273</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="15" t="s">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="D92" s="15" t="s">
         <v>309</v>
       </c>
       <c r="E92" s="17">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F92" s="15" t="s">
         <v>310</v>
@@ -4176,174 +4188,174 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="15" t="s">
-        <v>189</v>
+        <v>311</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="D93" s="15" t="s">
         <v>312</v>
       </c>
       <c r="E93" s="17">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F93" s="15" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="G93" s="17" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E94" s="17">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F94" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G94" s="17" t="s">
-        <v>23</v>
+        <v>317</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D95" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="E95" s="17">
+        <v>20</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="G95" s="17" t="s">
         <v>317</v>
-      </c>
-      <c r="E95" s="17">
-        <v>22</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="15" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="E96" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" s="15" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G96" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>324</v>
+        <v>214</v>
       </c>
       <c r="E97" s="17">
         <v>20</v>
       </c>
       <c r="F97" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G97" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>303</v>
+        <v>329</v>
       </c>
       <c r="E98" s="17">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F98" s="15" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G98" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D99" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="B99" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="E99" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F99" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G99" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D100" s="15" t="s">
         <v>334</v>
@@ -4355,7 +4367,7 @@
         <v>335</v>
       </c>
       <c r="G100" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4363,59 +4375,59 @@
         <v>336</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E101" s="17">
         <v>10</v>
       </c>
       <c r="F101" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G101" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E102" s="17">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F102" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G102" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>342</v>
+        <v>185</v>
       </c>
       <c r="E103" s="17">
         <v>10</v>
@@ -4424,7 +4436,7 @@
         <v>343</v>
       </c>
       <c r="G103" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4432,45 +4444,45 @@
         <v>344</v>
       </c>
       <c r="B104" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E104" s="17">
+        <v>50</v>
+      </c>
+      <c r="F104" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C104" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="E104" s="17">
-        <v>80</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>346</v>
-      </c>
       <c r="G104" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B105" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="B105" s="16" t="s">
-        <v>345</v>
-      </c>
       <c r="C105" s="16" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="E105" s="17">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F105" s="15" t="s">
         <v>348</v>
       </c>
       <c r="G105" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4478,22 +4490,22 @@
         <v>349</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>257</v>
+        <v>350</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E106" s="17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F106" s="15" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="G106" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4501,22 +4513,22 @@
         <v>351</v>
       </c>
       <c r="B107" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D107" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C107" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>334</v>
-      </c>
       <c r="E107" s="17">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F107" s="15" t="s">
         <v>353</v>
       </c>
       <c r="G107" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4527,226 +4539,226 @@
         <v>355</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E108" s="17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F108" s="15" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="G108" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="15" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="E109" s="17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F109" s="15" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G109" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="15" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E110" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F110" s="15" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G110" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="15" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E111" s="17">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F111" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G111" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E112" s="17">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F112" s="15" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="G112" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B113" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="B113" s="16" t="s">
-        <v>371</v>
-      </c>
       <c r="C113" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E113" s="17">
         <v>10</v>
       </c>
       <c r="F113" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G113" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="15" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B114" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E114" s="17">
+        <v>10</v>
+      </c>
+      <c r="F114" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="C114" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E114" s="17">
-        <v>1</v>
-      </c>
-      <c r="F114" s="15" t="s">
-        <v>334</v>
-      </c>
       <c r="G114" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C115" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="D115" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E115" s="17">
+        <v>30</v>
+      </c>
+      <c r="F115" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="C115" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="E115" s="17">
-        <v>10</v>
-      </c>
-      <c r="F115" s="15" t="s">
-        <v>376</v>
-      </c>
       <c r="G115" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="15" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="E116" s="17">
         <v>10</v>
       </c>
       <c r="F116" s="15" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G116" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>379</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E117" s="17">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F117" s="15" t="s">
         <v>380</v>
       </c>
       <c r="G117" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4754,381 +4766,381 @@
         <v>381</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E118" s="17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F118" s="15" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="G118" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B119" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="B119" s="16" t="s">
-        <v>384</v>
-      </c>
       <c r="C119" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E119" s="17">
         <v>10</v>
       </c>
       <c r="F119" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G119" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="15" t="s">
-        <v>386</v>
+        <v>351</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E120" s="17">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G120" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C121" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="D121" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="E121" s="17">
+        <v>50</v>
+      </c>
+      <c r="F121" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="C121" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E121" s="17">
-        <v>10</v>
-      </c>
-      <c r="F121" s="15" t="s">
-        <v>389</v>
-      </c>
       <c r="G121" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="15" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E122" s="17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="G122" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="15" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
       <c r="E123" s="17">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F123" s="15" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G123" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="15" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="E124" s="17">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F124" s="15" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G124" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="15" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E125" s="17">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G125" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="15" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>405</v>
+        <v>329</v>
       </c>
       <c r="E126" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F126" s="15" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G126" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B127" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="C127" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="C127" s="16" t="s">
-        <v>409</v>
-      </c>
       <c r="D127" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E127" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G127" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E128" s="17">
         <v>50</v>
       </c>
       <c r="F128" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G128" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E129" s="17">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F129" s="15" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G129" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="15" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E130" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F130" s="15" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="15" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="E131" s="17">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G131" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E132" s="17">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G132" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>405</v>
+        <v>329</v>
       </c>
       <c r="E133" s="17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F133" s="15" t="s">
-        <v>430</v>
+        <v>329</v>
       </c>
       <c r="G133" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="15" t="s">
-        <v>431</v>
+        <v>376</v>
       </c>
       <c r="B134" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="D134" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>432</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>334</v>
       </c>
       <c r="E134" s="17">
         <v>10</v>
@@ -5137,7 +5149,7 @@
         <v>433</v>
       </c>
       <c r="G134" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5145,142 +5157,142 @@
         <v>434</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>334</v>
+        <v>432</v>
       </c>
       <c r="E135" s="17">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F135" s="15" t="s">
-        <v>334</v>
+        <v>433</v>
       </c>
       <c r="G135" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="15" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D136" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E136" s="17">
+        <v>50</v>
+      </c>
+      <c r="F136" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="E136" s="17">
-        <v>10</v>
-      </c>
-      <c r="F136" s="15" t="s">
-        <v>438</v>
-      </c>
       <c r="G136" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B137" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="B137" s="16" t="s">
-        <v>436</v>
-      </c>
       <c r="C137" s="16" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>437</v>
+        <v>329</v>
       </c>
       <c r="E137" s="17">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F137" s="15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G137" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E138" s="17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F138" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G138" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="15" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B139" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D139" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E139" s="17">
+        <v>10</v>
+      </c>
+      <c r="F139" s="15" t="s">
         <v>444</v>
       </c>
-      <c r="C139" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="D139" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E139" s="17">
-        <v>20</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>445</v>
-      </c>
       <c r="G139" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E140" s="17">
+        <v>10</v>
+      </c>
+      <c r="F140" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="B140" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="D140" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E140" s="17">
-        <v>20</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>448</v>
-      </c>
       <c r="G140" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="15" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="B141" s="16" t="s">
         <v>447</v>
@@ -5289,122 +5301,122 @@
         <v>447</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E141" s="17">
         <v>10</v>
       </c>
       <c r="F141" s="15" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="G141" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="15" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>334</v>
+        <v>449</v>
       </c>
       <c r="E142" s="17">
         <v>10</v>
       </c>
       <c r="F142" s="15" t="s">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="G142" s="17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="15" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="B143" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="D143" s="15" t="s">
         <v>452</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="D143" s="15" t="s">
-        <v>334</v>
       </c>
       <c r="E143" s="17">
         <v>10</v>
       </c>
       <c r="F143" s="15" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="G143" s="17" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="15" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>453</v>
+        <v>383</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>453</v>
+        <v>383</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>454</v>
+        <v>329</v>
       </c>
       <c r="E144" s="17">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F144" s="15" t="s">
-        <v>385</v>
+        <v>456</v>
       </c>
       <c r="G144" s="17" t="s">
-        <v>322</v>
+        <v>23</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="15" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>456</v>
+        <v>370</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>457</v>
+        <v>329</v>
       </c>
       <c r="E145" s="17">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="F145" s="15" t="s">
         <v>458</v>
       </c>
       <c r="G145" s="17" t="s">
-        <v>459</v>
+        <v>23</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B146" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="B146" s="16" t="s">
-        <v>388</v>
-      </c>
       <c r="C146" s="16" t="s">
-        <v>388</v>
+        <v>460</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E146" s="17">
         <v>100</v>
@@ -5421,19 +5433,19 @@
         <v>462</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>371</v>
+        <v>460</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E147" s="17">
         <v>100</v>
       </c>
       <c r="F147" s="15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G147" s="17" t="s">
         <v>23</v>
@@ -5441,16 +5453,16 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B148" s="16" t="s">
         <v>464</v>
-      </c>
-      <c r="B148" s="16" t="s">
-        <v>465</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>465</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E148" s="17">
         <v>100</v>
@@ -5467,19 +5479,19 @@
         <v>467</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>465</v>
+        <v>328</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>465</v>
+        <v>252</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E149" s="17">
         <v>100</v>
       </c>
       <c r="F149" s="15" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G149" s="17" t="s">
         <v>23</v>
@@ -5487,19 +5499,19 @@
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C150" s="16" t="s">
         <v>470</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E150" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F150" s="15" t="s">
         <v>471</v>
@@ -5513,19 +5525,19 @@
         <v>472</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>333</v>
+        <v>473</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>257</v>
+        <v>474</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E151" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F151" s="15" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G151" s="17" t="s">
         <v>23</v>
@@ -5533,22 +5545,22 @@
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="15" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E152" s="17">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F152" s="15" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G152" s="17" t="s">
         <v>23</v>
@@ -5556,22 +5568,22 @@
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="15" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B153" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E153" s="17">
+        <v>100</v>
+      </c>
+      <c r="F153" s="15" t="s">
         <v>478</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E153" s="17">
-        <v>50</v>
-      </c>
-      <c r="F153" s="15" t="s">
-        <v>480</v>
       </c>
       <c r="G153" s="17" t="s">
         <v>23</v>
@@ -5579,22 +5591,22 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="15" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E154" s="17">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="F154" s="15" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G154" s="17" t="s">
         <v>23</v>
@@ -5602,22 +5614,22 @@
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C155" s="16" t="s">
         <v>486</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E155" s="17">
         <v>100</v>
       </c>
       <c r="F155" s="15" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G155" s="17" t="s">
         <v>23</v>
@@ -5625,22 +5637,22 @@
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>488</v>
+        <v>439</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E156" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F156" s="15" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="G156" s="17" t="s">
         <v>23</v>
@@ -5648,19 +5660,19 @@
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="15" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B157" s="16" t="s">
-        <v>491</v>
+        <v>379</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>491</v>
+        <v>379</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E157" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F157" s="15" t="s">
         <v>492</v>
@@ -5674,22 +5686,22 @@
         <v>493</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>444</v>
+        <v>279</v>
       </c>
       <c r="C158" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D158" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="D158" s="15" t="s">
-        <v>334</v>
-      </c>
       <c r="E158" s="17">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F158" s="15" t="s">
         <v>495</v>
       </c>
       <c r="G158" s="17" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5697,68 +5709,68 @@
         <v>496</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>384</v>
+        <v>497</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>384</v>
+        <v>497</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>334</v>
+        <v>498</v>
       </c>
       <c r="E159" s="17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G159" s="17" t="s">
-        <v>23</v>
+        <v>190</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="15" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>284</v>
+        <v>501</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>252</v>
+        <v>501</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E160" s="17">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F160" s="15" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="G160" s="17" t="s">
-        <v>195</v>
+        <v>504</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="15" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>502</v>
+        <v>54</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E161" s="17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F161" s="15" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="G161" s="17" t="s">
-        <v>195</v>
+        <v>508</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5772,82 +5784,82 @@
         <v>506</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E162" s="17">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F162" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="G162" s="17" t="s">
         <v>508</v>
-      </c>
-      <c r="G162" s="17" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="15" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>59</v>
+        <v>506</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E163" s="17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F163" s="15" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G163" s="17" t="s">
-        <v>513</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="15" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B164" s="16" t="s">
-        <v>511</v>
+        <v>322</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>511</v>
+        <v>54</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E164" s="17">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F164" s="15" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G164" s="17" t="s">
-        <v>513</v>
+        <v>23</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="15" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>502</v>
+        <v>518</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>59</v>
+        <v>519</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E165" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F165" s="15" t="s">
-        <v>26</v>
+        <v>521</v>
       </c>
       <c r="G165" s="17" t="s">
         <v>23</v>
@@ -5855,22 +5867,22 @@
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="15" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="E166" s="17">
         <v>1</v>
       </c>
       <c r="F166" s="15" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="G166" s="17" t="s">
         <v>23</v>
@@ -5878,186 +5890,182 @@
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="15" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>327</v>
+        <v>527</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>59</v>
+        <v>528</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>522</v>
-      </c>
-      <c r="E167" s="17">
-        <v>1</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="E167" s="17"/>
       <c r="F167" s="15" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="G167" s="17" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="15" t="s">
-        <v>524</v>
+        <v>111</v>
       </c>
       <c r="B168" s="16" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E168" s="17">
         <v>3</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G168" s="17" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="D169" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="B169" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="C169" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D169" s="17" t="s">
+      <c r="E169" s="17">
+        <v>4</v>
+      </c>
+      <c r="F169" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="E169" s="17">
-        <v>2</v>
-      </c>
-      <c r="F169" s="15" t="s">
-        <v>531</v>
-      </c>
       <c r="G169" s="17" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E170" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F170" s="15" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G170" s="17" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="15" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>345</v>
+        <v>527</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>257</v>
+        <v>539</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="E171" s="17">
-        <v>11</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="E171" s="17"/>
       <c r="F171" s="15" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G171" s="17" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="15" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>502</v>
+        <v>347</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>59</v>
+        <v>542</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>517</v>
+        <v>329</v>
       </c>
       <c r="E172" s="17">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F172" s="15" t="s">
-        <v>539</v>
+        <v>346</v>
       </c>
       <c r="G172" s="17" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="15" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>541</v>
+        <v>347</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>543</v>
+        <v>111</v>
       </c>
       <c r="E173" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F173" s="15" t="s">
         <v>544</v>
       </c>
       <c r="G173" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="15" t="s">
-        <v>114</v>
+        <v>545</v>
       </c>
       <c r="B174" s="16" t="s">
-        <v>545</v>
+        <v>347</v>
       </c>
       <c r="C174" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="D174" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="D174" s="17" t="s">
-        <v>543</v>
-      </c>
       <c r="E174" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F174" s="15" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G174" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6065,22 +6073,22 @@
         <v>547</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>546</v>
+        <v>347</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>355</v>
+        <v>536</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>543</v>
+        <v>111</v>
       </c>
       <c r="E175" s="17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F175" s="15" t="s">
-        <v>544</v>
+        <v>111</v>
       </c>
       <c r="G175" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6091,38 +6099,66 @@
         <v>549</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E176" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F176" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="G176" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="G176" s="17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="4"/>
-      <c r="B177" s="5"/>
-      <c r="C177" s="5"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+      <c r="B177" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="E177" s="17">
+        <v>1</v>
+      </c>
+      <c r="F177" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="G177" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="178" spans="1:9">
-      <c r="A178" s="4"/>
-      <c r="B178" s="5"/>
-      <c r="C178" s="5"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
+      <c r="A178" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="D178" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="E178" s="17">
+        <v>1</v>
+      </c>
+      <c r="F178" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="G178" s="17" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="4"/>

--- a/export_calendar.xlsx
+++ b/export_calendar.xlsx
@@ -9,15 +9,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$H$243</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
-  <si>
-    <t>Events for the Month of January</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>Events for the month of May</t>
   </si>
   <si>
     <t>Event Title</t>
@@ -29,6 +31,9 @@
     <t>End Date</t>
   </si>
   <si>
+    <t>Office</t>
+  </si>
+  <si>
     <t>Venue</t>
   </si>
   <si>
@@ -39,6 +44,84 @@
   </si>
   <si>
     <t>Posted by</t>
+  </si>
+  <si>
+    <t>2nd Quarter CDP Meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-07 </t>
+  </si>
+  <si>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t>to be determined</t>
+  </si>
+  <si>
+    <t>regional and provincial focal persons</t>
+  </si>
+  <si>
+    <t>krgogolin</t>
+  </si>
+  <si>
+    <t>Regional Composite Team Meeting CDP-CDRA</t>
+  </si>
+  <si>
+    <t>TO BE DETERMINED</t>
+  </si>
+  <si>
+    <t>CDP-CDRA Coaches</t>
+  </si>
+  <si>
+    <t>BPCO Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-12 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-14 </t>
+  </si>
+  <si>
+    <t>building officials, MPDC, AO, Treasurer</t>
+  </si>
+  <si>
+    <t>Training on CDP Formulation (HANDA Fund)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-22 </t>
+  </si>
+  <si>
+    <t>selected LGUs of Cavite, Laguna, Rizal, Quezon</t>
+  </si>
+  <si>
+    <t>Resettlement Governance Launch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-20 </t>
+  </si>
+  <si>
+    <t>RO, PO, FOs, Housing Officers</t>
+  </si>
+  <si>
+    <t>Mentoring and Updating on the Development of Local Shelter Plan (LSP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-13 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-15 </t>
+  </si>
+  <si>
+    <t>LGCDD-MBRTG</t>
+  </si>
+  <si>
+    <t>LCE, SB on Environment, Planning Officer, Housing Officer  All LGUs covered</t>
+  </si>
+  <si>
+    <t>caporras</t>
   </si>
 </sst>
 </file>
@@ -49,7 +132,7 @@
     <numFmt numFmtId="164" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-3409]dddd\,\ mmmm\ dd\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -69,16 +152,25 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,9 +183,26 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border/>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -103,12 +212,6 @@
       </top>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -133,11 +236,20 @@
       </bottom>
     </border>
     <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -146,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -171,35 +283,44 @@
     <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="7" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -208,6 +329,71 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3000375" cy="552450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Picture 1" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="895350" cy="885825"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2" descr=""/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,150 +686,244 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I239"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="17.42578125" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11.140625" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.42578125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.5703125" customWidth="true" style="0"/>
-    <col min="6" max="6" width="22.140625" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.42578125" customWidth="true" style="0"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true" style="0"/>
+    <col min="3" max="3" width="13" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.42578125" customWidth="true" style="0"/>
+    <col min="5" max="5" width="17" customWidth="true" style="0"/>
+    <col min="6" max="6" width="25.85546875" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.42578125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2"/>
+    </row>
+    <row r="6" spans="1:9" customHeight="1" ht="14.45">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="6" spans="1:9" customHeight="1" ht="30">
-      <c r="A6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" customHeight="1" ht="14.45">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" customHeight="1" ht="30">
+      <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G8" s="12" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" customHeight="1" ht="15.75">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
+      <c r="H8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" customHeight="1" ht="15.75">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="3"/>
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="17">
+        <v>20</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
+      <c r="A11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="17">
+        <v>10</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
+      <c r="A12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="17">
+        <v>50</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
+      <c r="A13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="17">
+        <v>30</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
+      <c r="A14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="17">
+        <v>100</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="15" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
+      <c r="A15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="17">
+        <v>100</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:9" customHeight="1" ht="14.45">
       <c r="A16" s="4"/>
@@ -717,7 +997,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="3"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" customHeight="1" ht="14.45">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -726,7 +1006,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" customHeight="1" ht="14.45">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -753,7 +1033,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" customHeight="1" ht="409.6">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -762,7 +1042,7 @@
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" customHeight="1" ht="409.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -771,7 +1051,7 @@
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" customHeight="1" ht="409.6">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -780,7 +1060,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" customHeight="1" ht="409.6">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -789,7 +1069,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" customHeight="1" ht="409.6">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -798,7 +1078,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" customHeight="1" ht="409.6">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -807,7 +1087,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" customHeight="1" ht="409.6">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -816,7 +1096,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" customHeight="1" ht="409.6">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -825,7 +1105,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" customHeight="1" ht="409.6">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -834,7 +1114,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" customHeight="1" ht="409.6">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -843,7 +1123,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" customHeight="1" ht="409.6">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -852,7 +1132,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" customHeight="1" ht="409.6">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -861,7 +1141,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" customHeight="1" ht="409.6">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -870,7 +1150,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" customHeight="1" ht="409.6">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -879,7 +1159,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" customHeight="1" ht="409.6">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -888,7 +1168,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" customHeight="1" ht="409.6">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -897,7 +1177,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" customHeight="1" ht="409.6">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -906,7 +1186,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" customHeight="1" ht="409.6">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -915,7 +1195,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" customHeight="1" ht="409.6">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -924,7 +1204,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" customHeight="1" ht="409.6">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -933,7 +1213,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" customHeight="1" ht="409.6">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -942,7 +1222,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" customHeight="1" ht="409.6">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -951,7 +1231,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" customHeight="1" ht="409.6">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -960,7 +1240,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" customHeight="1" ht="409.6">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -969,7 +1249,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" customHeight="1" ht="409.6">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -978,7 +1258,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" customHeight="1" ht="409.6">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -987,7 +1267,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" customHeight="1" ht="409.6">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -996,7 +1276,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" customHeight="1" ht="409.6">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1005,7 +1285,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" customHeight="1" ht="409.6">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1014,7 +1294,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" customHeight="1" ht="409.6">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1023,7 +1303,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" customHeight="1" ht="409.6">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1032,7 +1312,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" customHeight="1" ht="409.6">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1041,7 +1321,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" customHeight="1" ht="409.6">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1050,7 +1330,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" customHeight="1" ht="409.6">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1059,7 +1339,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" customHeight="1" ht="409.6">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1068,7 +1348,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" customHeight="1" ht="409.6">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1077,7 +1357,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" customHeight="1" ht="409.6">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1086,7 +1366,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" customHeight="1" ht="409.6">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1095,7 +1375,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" customHeight="1" ht="409.6">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1104,7 +1384,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" customHeight="1" ht="409.6">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1113,7 +1393,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" customHeight="1" ht="409.6">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1122,7 +1402,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" customHeight="1" ht="409.6">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1131,7 +1411,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" customHeight="1" ht="70">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1140,7 +1420,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" customHeight="1" ht="409.6">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1149,7 +1429,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" customHeight="1" ht="409.6">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1158,7 +1438,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" customHeight="1" ht="409.6">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1167,7 +1447,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" customHeight="1" ht="409.6">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1176,7 +1456,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" customHeight="1" ht="409.6">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1185,7 +1465,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" customHeight="1" ht="409.6">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1194,7 +1474,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" customHeight="1" ht="409.6">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1203,7 +1483,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" customHeight="1" ht="409.6">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1212,7 +1492,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" customHeight="1" ht="409.6">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1221,7 +1501,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" customHeight="1" ht="409.6">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1230,7 +1510,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" customHeight="1" ht="409.6">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1239,7 +1519,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" customHeight="1" ht="409.6">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1248,7 +1528,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" customHeight="1" ht="409.6">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -1257,7 +1537,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" customHeight="1" ht="409.6">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -1266,7 +1546,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" customHeight="1" ht="409.6">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -1275,7 +1555,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" customHeight="1" ht="409.6">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -1284,7 +1564,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" customHeight="1" ht="409.6">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -1293,7 +1573,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" customHeight="1" ht="409.6">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -1302,7 +1582,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" customHeight="1" ht="409.6">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -1311,7 +1591,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" customHeight="1" ht="409.6">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -1320,7 +1600,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" customHeight="1" ht="409.6">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -1329,7 +1609,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" customHeight="1" ht="409.6">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -1338,7 +1618,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" customHeight="1" ht="409.6">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -1347,7 +1627,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" customHeight="1" ht="409.6">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -1356,7 +1636,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" customHeight="1" ht="409.6">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1365,7 +1645,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" customHeight="1" ht="409.6">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -1374,7 +1654,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" customHeight="1" ht="409.6">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -1383,7 +1663,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" customHeight="1" ht="409.6">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -1392,7 +1672,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" customHeight="1" ht="409.6">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -1401,7 +1681,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" customHeight="1" ht="409.6">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -1410,7 +1690,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" customHeight="1" ht="409.6">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -1419,7 +1699,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" customHeight="1" ht="409.6">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -1428,7 +1708,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" customHeight="1" ht="409.6">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -1437,7 +1717,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" customHeight="1" ht="409.6">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -1446,7 +1726,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" customHeight="1" ht="409.6">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -1455,7 +1735,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" customHeight="1" ht="409.6">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -1464,7 +1744,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" customHeight="1" ht="409.6">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -1473,7 +1753,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" customHeight="1" ht="409.6">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -1482,7 +1762,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" customHeight="1" ht="409.6">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -1491,7 +1771,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" customHeight="1" ht="409.6">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -1500,7 +1780,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" customHeight="1" ht="409.6">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -1509,7 +1789,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" customHeight="1" ht="409.6">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -1518,7 +1798,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" customHeight="1" ht="409.6">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -1527,7 +1807,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" customHeight="1" ht="409.6">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -1536,7 +1816,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" customHeight="1" ht="409.6">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -1545,7 +1825,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" customHeight="1" ht="409.6">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -1554,7 +1834,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" customHeight="1" ht="409.6">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -1563,7 +1843,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" customHeight="1" ht="409.6">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -1572,7 +1852,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" customHeight="1" ht="409.6">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -1581,7 +1861,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" customHeight="1" ht="409.6">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -1590,7 +1870,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" customHeight="1" ht="409.6">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -1599,7 +1879,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" customHeight="1" ht="409.6">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -1608,7 +1888,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" customHeight="1" ht="409.6">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -1617,7 +1897,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" customHeight="1" ht="409.6">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -1626,7 +1906,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" customHeight="1" ht="409.6">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -1635,7 +1915,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" customHeight="1" ht="409.6">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -1644,7 +1924,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" customHeight="1" ht="409.6">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -1653,7 +1933,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" customHeight="1" ht="409.6">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -1662,7 +1942,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" customHeight="1" ht="409.6">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -1671,7 +1951,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" customHeight="1" ht="409.6">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -1680,7 +1960,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" customHeight="1" ht="409.6">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -1689,7 +1969,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" customHeight="1" ht="409.6">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -1698,7 +1978,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" customHeight="1" ht="409.6">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -1707,7 +1987,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" customHeight="1" ht="409.6">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -1716,7 +1996,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" customHeight="1" ht="409.6">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -1725,7 +2005,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" customHeight="1" ht="409.6">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -1734,7 +2014,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" customHeight="1" ht="409.6">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -1743,7 +2023,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" customHeight="1" ht="409.6">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -1752,7 +2032,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" customHeight="1" ht="409.6">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -1761,7 +2041,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" customHeight="1" ht="409.6">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -1770,7 +2050,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" customHeight="1" ht="409.6">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -1779,7 +2059,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" customHeight="1" ht="409.6">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -1788,7 +2068,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" customHeight="1" ht="409.6">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -1797,7 +2077,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" customHeight="1" ht="409.6">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -1806,7 +2086,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" customHeight="1" ht="409.6">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -1815,7 +2095,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" customHeight="1" ht="409.6">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -1824,7 +2104,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" customHeight="1" ht="409.6">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -1833,7 +2113,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" customHeight="1" ht="409.6">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -1842,7 +2122,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" customHeight="1" ht="409.6">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -1851,7 +2131,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" customHeight="1" ht="409.6">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -1860,7 +2140,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" customHeight="1" ht="409.6">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -1869,7 +2149,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" customHeight="1" ht="409.6">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -1878,7 +2158,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" customHeight="1" ht="409.6">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -1887,7 +2167,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" customHeight="1" ht="409.6">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -1896,7 +2176,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" customHeight="1" ht="409.6">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -1905,7 +2185,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" customHeight="1" ht="409.6">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -1914,7 +2194,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" customHeight="1" ht="409.6">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -1923,7 +2203,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" customHeight="1" ht="409.6">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -1932,7 +2212,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" customHeight="1" ht="409.6">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -1941,25 +2221,25 @@
       <c r="F159" s="4"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" customHeight="1" ht="409.6">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
-      <c r="D160" s="3"/>
+      <c r="D160" s="4"/>
       <c r="E160" s="3"/>
       <c r="F160" s="4"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" customHeight="1" ht="409.6">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
-      <c r="D161" s="3"/>
+      <c r="D161" s="4"/>
       <c r="E161" s="3"/>
       <c r="F161" s="4"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" customHeight="1" ht="409.6">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -1968,7 +2248,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" customHeight="1" ht="409.6">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -1977,7 +2257,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" customHeight="1" ht="409.6">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -1986,7 +2266,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" customHeight="1" ht="409.6">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -1995,7 +2275,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" customHeight="1" ht="409.6">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -2004,7 +2284,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" customHeight="1" ht="409.6">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -2013,7 +2293,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" customHeight="1" ht="409.6">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -2022,7 +2302,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" customHeight="1" ht="409.6">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -2031,7 +2311,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" customHeight="1" ht="409.6">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -2040,7 +2320,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" customHeight="1" ht="409.6">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -2049,7 +2329,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" customHeight="1" ht="409.6">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -2058,7 +2338,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" customHeight="1" ht="409.6">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -2067,7 +2347,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" customHeight="1" ht="409.6">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -2076,7 +2356,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" customHeight="1" ht="409.6">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -2085,7 +2365,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" customHeight="1" ht="409.6">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -2094,25 +2374,25 @@
       <c r="F176" s="4"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" customHeight="1" ht="409.6">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
+      <c r="F177" s="4"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" customHeight="1" ht="409.6">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
+      <c r="F178" s="4"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" customHeight="1" ht="409.6">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -2121,7 +2401,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" customHeight="1" ht="409.6">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -2130,7 +2410,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" customHeight="1" ht="409.6">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -2139,7 +2419,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" customHeight="1" ht="409.6">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -2148,7 +2428,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" customHeight="1" ht="409.6">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -2157,7 +2437,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" customHeight="1" ht="409.6">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -2166,7 +2446,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" customHeight="1" ht="409.6">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2175,7 +2455,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" customHeight="1" ht="409.6">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -2184,7 +2464,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" customHeight="1" ht="409.6">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -2193,7 +2473,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" customHeight="1" ht="409.6">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -2202,7 +2482,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" customHeight="1" ht="409.6">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -2211,7 +2491,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" customHeight="1" ht="409.6">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -2220,7 +2500,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" customHeight="1" ht="409.6">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -2229,7 +2509,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" customHeight="1" ht="409.6">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -2238,7 +2518,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" customHeight="1" ht="409.6">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -2247,7 +2527,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" customHeight="1" ht="409.6">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -2256,7 +2536,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" customHeight="1" ht="409.6">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -2265,7 +2545,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" customHeight="1" ht="409.6">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -2274,7 +2554,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" customHeight="1" ht="409.6">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -2283,7 +2563,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" customHeight="1" ht="409.6">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -2292,7 +2572,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" customHeight="1" ht="409.6">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -2301,7 +2581,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" customHeight="1" ht="409.6">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -2310,7 +2590,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" customHeight="1" ht="409.6">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -2319,7 +2599,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" customHeight="1" ht="409.6">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -2328,7 +2608,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" customHeight="1" ht="409.6">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -2337,7 +2617,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" customHeight="1" ht="409.6">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -2346,7 +2626,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" customHeight="1" ht="409.6">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -2355,7 +2635,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" customHeight="1" ht="409.6">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -2364,7 +2644,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" customHeight="1" ht="409.6">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -2373,7 +2653,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" customHeight="1" ht="409.6">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -2382,7 +2662,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" customHeight="1" ht="409.6">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -2391,7 +2671,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" customHeight="1" ht="409.6">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -2400,7 +2680,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" customHeight="1" ht="409.6">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -2409,7 +2689,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" customHeight="1" ht="409.6">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -2418,7 +2698,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" customHeight="1" ht="409.6">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -2427,7 +2707,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" customHeight="1" ht="409.6">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -2436,7 +2716,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" customHeight="1" ht="409.6">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -2445,7 +2725,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" customHeight="1" ht="409.6">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -2454,7 +2734,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" customHeight="1" ht="409.6">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -2463,7 +2743,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" customHeight="1" ht="409.6">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -2472,7 +2752,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" customHeight="1" ht="409.6">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -2481,7 +2761,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" customHeight="1" ht="409.6">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -2490,7 +2770,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" customHeight="1" ht="409.6">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -2499,7 +2779,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" customHeight="1" ht="409.6">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -2508,7 +2788,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" customHeight="1" ht="409.6">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -2517,7 +2797,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" customHeight="1" ht="409.6">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -2526,7 +2806,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" customHeight="1" ht="409.6">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -2535,7 +2815,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" customHeight="1" ht="409.6">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -2544,7 +2824,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" customHeight="1" ht="409.6">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -2553,7 +2833,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" customHeight="1" ht="409.6">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -2562,7 +2842,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" customHeight="1" ht="409.6">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -2571,7 +2851,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" customHeight="1" ht="409.6">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -2580,7 +2860,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" customHeight="1" ht="409.6">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -2589,59 +2869,78 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:9">
-      <c r="A232" s="3"/>
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
+    <row r="232" spans="1:9" customHeight="1" ht="409.6">
+      <c r="A232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:9">
-      <c r="A233" s="3"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
+    <row r="233" spans="1:9" customHeight="1" ht="409.6">
+      <c r="A233" s="4"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:9">
-      <c r="B234" s="7"/>
-      <c r="C234" s="7"/>
-    </row>
-    <row r="235" spans="1:9">
-      <c r="B235" s="7"/>
-      <c r="C235" s="7"/>
-    </row>
-    <row r="236" spans="1:9">
+    <row r="234" spans="1:9" customHeight="1" ht="409.6">
+      <c r="A234" s="3"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+    </row>
+    <row r="235" spans="1:9" customHeight="1" ht="409.6">
+      <c r="A235" s="3"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+    </row>
+    <row r="236" spans="1:9" customHeight="1" ht="409.6">
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" customHeight="1" ht="409.6">
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238" spans="1:9">
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-    </row>
-    <row r="239" spans="1:9">
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
+    <row r="238" spans="1:9" customHeight="1" ht="409.6">
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
+    </row>
+    <row r="239" spans="1:9" customHeight="1" ht="409.6">
+      <c r="B239" s="7"/>
+      <c r="C239" s="7"/>
+    </row>
+    <row r="240" spans="1:9" customHeight="1" ht="409.6">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="1:9" customHeight="1" ht="409.6">
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A2:G3"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="A6:G7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2654,5 +2953,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/export_calendar.xlsx
+++ b/export_calendar.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>Events for the month of May</t>
   </si>
@@ -122,6 +122,27 @@
   </si>
   <si>
     <t>caporras</t>
+  </si>
+  <si>
+    <t>sample event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-05 </t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>sample venue</t>
+  </si>
+  <si>
+    <t>RO PO</t>
+  </si>
+  <si>
+    <t>mmmonteiro</t>
   </si>
 </sst>
 </file>
@@ -152,20 +173,20 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -202,16 +223,17 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <top style="medium">
+      <right style="medium">
         <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -231,25 +253,24 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+    </border>
+    <border>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -258,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -283,44 +304,47 @@
     <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="7" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -689,7 +713,7 @@
   <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -710,229 +734,244 @@
       <c r="A2"/>
     </row>
     <row r="6" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" customHeight="1" ht="30">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" customHeight="1" ht="15.75">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A10" s="17" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" customHeight="1" ht="83">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="20">
         <v>20</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A11" s="17" t="s">
+    <row r="11" spans="1:9" customHeight="1" ht="83">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="20">
         <v>10</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:9" customHeight="1" ht="40">
+      <c r="A12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="20">
         <v>50</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A13" s="17" t="s">
+    <row r="13" spans="1:9" customHeight="1" ht="83">
+      <c r="A13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="20">
         <v>30</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:9" customHeight="1" ht="83">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="20">
         <v>100</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:9" customHeight="1" ht="83">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="20">
         <v>100</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
+    <row r="16" spans="1:9" customHeight="1" ht="40">
+      <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="17" spans="1:9" customHeight="1" ht="14.45">
       <c r="A17" s="4"/>
@@ -1411,7 +1450,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:9" customHeight="1" ht="70">
+    <row r="70" spans="1:9" customHeight="1" ht="69.95">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -2932,6 +2971,8 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A6:G7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -2939,8 +2980,6 @@
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/export_calendar.xlsx
+++ b/export_calendar.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Events for the month of May</t>
   </si>
@@ -44,105 +44,6 @@
   </si>
   <si>
     <t>Posted by</t>
-  </si>
-  <si>
-    <t>2nd Quarter CDP Meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-07 </t>
-  </si>
-  <si>
-    <t>LGCDD</t>
-  </si>
-  <si>
-    <t>to be determined</t>
-  </si>
-  <si>
-    <t>regional and provincial focal persons</t>
-  </si>
-  <si>
-    <t>krgogolin</t>
-  </si>
-  <si>
-    <t>Regional Composite Team Meeting CDP-CDRA</t>
-  </si>
-  <si>
-    <t>TO BE DETERMINED</t>
-  </si>
-  <si>
-    <t>CDP-CDRA Coaches</t>
-  </si>
-  <si>
-    <t>BPCO Training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-14 </t>
-  </si>
-  <si>
-    <t>building officials, MPDC, AO, Treasurer</t>
-  </si>
-  <si>
-    <t>Training on CDP Formulation (HANDA Fund)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-18 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-22 </t>
-  </si>
-  <si>
-    <t>selected LGUs of Cavite, Laguna, Rizal, Quezon</t>
-  </si>
-  <si>
-    <t>Resettlement Governance Launch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-20 </t>
-  </si>
-  <si>
-    <t>RO, PO, FOs, Housing Officers</t>
-  </si>
-  <si>
-    <t>Mentoring and Updating on the Development of Local Shelter Plan (LSP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-15 </t>
-  </si>
-  <si>
-    <t>LGCDD-MBRTG</t>
-  </si>
-  <si>
-    <t>LCE, SB on Environment, Planning Officer, Housing Officer  All LGUs covered</t>
-  </si>
-  <si>
-    <t>caporras</t>
-  </si>
-  <si>
-    <t>sample event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-04 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-05-05 </t>
-  </si>
-  <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>sample venue</t>
-  </si>
-  <si>
-    <t>RO PO</t>
-  </si>
-  <si>
-    <t>mmmonteiro</t>
   </si>
 </sst>
 </file>
@@ -713,7 +614,7 @@
   <dimension ref="A1:I241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -793,185 +694,75 @@
       <c r="G9" s="19"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:9" customHeight="1" ht="83">
-      <c r="A10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="20">
-        <v>20</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" customHeight="1" ht="83">
-      <c r="A11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="20">
-        <v>10</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" customHeight="1" ht="40">
-      <c r="A12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="20">
-        <v>50</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" customHeight="1" ht="83">
-      <c r="A13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="20">
-        <v>30</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" customHeight="1" ht="83">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="20">
-        <v>100</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" customHeight="1" ht="83">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="20">
-        <v>100</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" customHeight="1" ht="40">
-      <c r="A16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>39</v>
-      </c>
+    <row r="10" spans="1:9" customHeight="1" ht="14.45">
+      <c r="A10" s="10"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" spans="1:9" customHeight="1" ht="14.45">
+      <c r="A11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:9" customHeight="1" ht="14.45">
+      <c r="A12" s="10"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" customHeight="1" ht="14.45">
+      <c r="A13" s="10"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" customHeight="1" ht="14.45">
+      <c r="A14" s="10"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" customHeight="1" ht="14.45">
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" customHeight="1" ht="14.45">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>41</v>
-      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:9" customHeight="1" ht="14.45">
       <c r="A17" s="4"/>

--- a/export_calendar.xlsx
+++ b/export_calendar.xlsx
@@ -17,12 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>Events for the month of May</t>
-  </si>
-  <si>
-    <t>Event Title</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+  <si>
+    <t>Activites for  February 2020</t>
+  </si>
+  <si>
+    <t>Activity Title</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -44,6 +44,263 @@
   </si>
   <si>
     <t>Posted by</t>
+  </si>
+  <si>
+    <t>Posted Date</t>
+  </si>
+  <si>
+    <t>Training of Trainers for the Roll-out of Human Resource Information System (HRIS) and Document Management System (DMS)</t>
+  </si>
+  <si>
+    <t>02/18/20</t>
+  </si>
+  <si>
+    <t>02/21/20</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>Hive Hotel, Quezon City</t>
+  </si>
+  <si>
+    <t>Maybelline Monteiro and Charles Adrian Odi</t>
+  </si>
+  <si>
+    <t>mmmonteiro</t>
+  </si>
+  <si>
+    <t>01/22/20</t>
+  </si>
+  <si>
+    <t>1st Quarter 2020 SCMDA Meetin</t>
+  </si>
+  <si>
+    <t>02/11/20</t>
+  </si>
+  <si>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>NEDA R-4A, Calamba City</t>
+  </si>
+  <si>
+    <t>RD Eli 
+Ms Faye</t>
+  </si>
+  <si>
+    <t>jbescalante</t>
+  </si>
+  <si>
+    <t>01/23/20</t>
+  </si>
+  <si>
+    <t>CAPDEV and Learning Session in Preparation for FY 2021 Program/Project Proposal</t>
+  </si>
+  <si>
+    <t>02/20/20</t>
+  </si>
+  <si>
+    <t>Clark, Pampanga</t>
+  </si>
+  <si>
+    <t>RD Eli
+Ms Faye
+Sir Joma</t>
+  </si>
+  <si>
+    <t>01/29/20</t>
+  </si>
+  <si>
+    <t>MONTHLY MANAGEMENT COMMITTEE (MANCOM) MEETING</t>
+  </si>
+  <si>
+    <t>02/03/20</t>
+  </si>
+  <si>
+    <t>Batangas City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD Eli </t>
+  </si>
+  <si>
+    <t>01/31/20</t>
+  </si>
+  <si>
+    <t>RCC Meeting 2020</t>
+  </si>
+  <si>
+    <t>02/06/20</t>
+  </si>
+  <si>
+    <t>1898 Hotel Colonia En Las Filipinas</t>
+  </si>
+  <si>
+    <t>RD Eli and Ms Charisse</t>
+  </si>
+  <si>
+    <t>AWARDING OF PLAQUE OF RECOGNITION TO THE WINNERS OF MANILA BAY DAY 2019</t>
+  </si>
+  <si>
+    <t>LGCDD-MBRTG</t>
+  </si>
+  <si>
+    <t>San Pedro, Laguna</t>
+  </si>
+  <si>
+    <t>Eunice Sales, Christian Dacanay</t>
+  </si>
+  <si>
+    <t>caporras</t>
+  </si>
+  <si>
+    <t>02/10/20</t>
+  </si>
+  <si>
+    <t>Calamba, Laguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVISITING SUPREME COURT’S MANDAMUS: MANILA BAY CLEAN UP, REHABILITATION AND PRESERVATION PROGRAM </t>
+  </si>
+  <si>
+    <t>Monte Vista Hotsprings and Conference Resort, City of Calamba, Laguna</t>
+  </si>
+  <si>
+    <t>JAY-AR T. BELTRAN  BRIAN B. BALLON EUNICE A. SALES
+MBRTG
+FOs</t>
+  </si>
+  <si>
+    <t>Planning Conference for Cy 2020 1st semester opb targets and opcr commitments</t>
+  </si>
+  <si>
+    <t>DILG IV-A Conference room</t>
+  </si>
+  <si>
+    <t>Planning Officers from Divisions and POs/HUC</t>
+  </si>
+  <si>
+    <t>jdtorres</t>
+  </si>
+  <si>
+    <t>CDP Training in Quezon Province</t>
+  </si>
+  <si>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t>Quezon Province</t>
+  </si>
+  <si>
+    <t>LGU</t>
+  </si>
+  <si>
+    <t>krgogolin</t>
+  </si>
+  <si>
+    <t>02/13/20</t>
+  </si>
+  <si>
+    <t>Revisiting the SC Mandamus on Manila Bay</t>
+  </si>
+  <si>
+    <t>Montevista, Calamba, Laguna</t>
+  </si>
+  <si>
+    <t>Old and New Program Officers, Central Office, Provincial Directors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUB-CBMS </t>
+  </si>
+  <si>
+    <t>02/26/20</t>
+  </si>
+  <si>
+    <t>Famy, Laguna</t>
+  </si>
+  <si>
+    <t>LGU Famy</t>
+  </si>
+  <si>
+    <t>mbenomis</t>
+  </si>
+  <si>
+    <t>02/14/20</t>
+  </si>
+  <si>
+    <t>LGMED-LGMES First Quarter Meeting cum FDP and DRR Meeting</t>
+  </si>
+  <si>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>Highlands Resort Pansol Calamba City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGMED-PDMU Team
+LGMES Chief and Assistant
+Senior Staff
+</t>
+  </si>
+  <si>
+    <t>gltumamac</t>
+  </si>
+  <si>
+    <t>02/19/20</t>
+  </si>
+  <si>
+    <t>ECLIP Cluster and other ELCAC Clusters of DILG (Meeting)</t>
+  </si>
+  <si>
+    <t>02/28/20</t>
+  </si>
+  <si>
+    <t>DILG IV-A Conference Room</t>
+  </si>
+  <si>
+    <t>DILG Regional ELCAC Team and Partner NGAs</t>
+  </si>
+  <si>
+    <t>Request for Assistance to Identify the Legal Boundary of Barangays/Cities/Municipalities/Provinces in CALABARZON</t>
+  </si>
+  <si>
+    <t>02/27/20</t>
+  </si>
+  <si>
+    <t>PSA Regional Office, Lipa City, Batangas</t>
+  </si>
+  <si>
+    <t>Participants:
+Gilberto L. Tumamac
+Jordan V. Nadal
+Jose Maria T. Revadavia</t>
+  </si>
+  <si>
+    <t>jmhernandez</t>
+  </si>
+  <si>
+    <t>1st Manila Bay Coordination Meeting</t>
+  </si>
+  <si>
+    <t>11/30/-1</t>
+  </si>
+  <si>
+    <t>DILG-NAPOLCOM Center, Edsa Corner Quezon Avenue, Quezon City, 1104 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>MBRTG</t>
+  </si>
+  <si>
+    <t>03/02/20</t>
+  </si>
+  <si>
+    <t>1st Coordination Meeting of Manila Bay TWG</t>
+  </si>
+  <si>
+    <t>CHRISTIAN DACANAY ABEL FULGENCIO ROSLIN GUTIERREZ CHERIELYN PORRAS DON PAOLO TEODORO</t>
+  </si>
+  <si>
+    <t>03/11/20</t>
   </si>
 </sst>
 </file>
@@ -92,7 +349,7 @@
       <name val="Cambria"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,8 +368,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border/>
     <border>
       <left style="medium">
@@ -176,11 +439,44 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -212,7 +508,13 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -241,10 +543,19 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -611,10 +922,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,235 +937,575 @@
     <col min="5" max="5" width="17" customWidth="true" style="0"/>
     <col min="6" max="6" width="25.85546875" customWidth="true" style="0"/>
     <col min="7" max="7" width="13.42578125" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10.85546875" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2"/>
     </row>
-    <row r="6" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:10" customHeight="1" ht="14.45">
+      <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+    <row r="7" spans="1:10" customHeight="1" ht="14.45">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" customHeight="1" ht="30">
-      <c r="A8" s="11" t="s">
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:10" customHeight="1" ht="30">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" customHeight="1" ht="15.75">
-      <c r="A9" s="12"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A10" s="10"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="21"/>
-    </row>
-    <row r="11" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A11" s="10"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="21"/>
-    </row>
-    <row r="12" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="21"/>
-    </row>
-    <row r="13" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A13" s="10"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A14" s="10"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A15" s="10"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A16" s="10"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" customHeight="1" ht="14.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" customHeight="1" ht="15.75">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" customHeight="1" ht="83">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10">
+        <v>40</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" customHeight="1" ht="83">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" customHeight="1" ht="83">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" customHeight="1" ht="83">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="10">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" customHeight="1" ht="40">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" customHeight="1" ht="83">
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" customHeight="1" ht="83">
+      <c r="A16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" customHeight="1" ht="83">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="8">
+        <v>33</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" customHeight="1" ht="83">
+      <c r="A18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="8">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" customHeight="1" ht="83">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" customHeight="1" ht="83">
+      <c r="A20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="8">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" customHeight="1" ht="40">
+      <c r="A21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" customHeight="1" ht="83">
+      <c r="A22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="8">
+        <v>45</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" customHeight="1" ht="83">
+      <c r="A23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="8">
+        <v>30</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" customHeight="1" ht="83">
+      <c r="A24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" customHeight="1" ht="83">
+      <c r="A25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" customHeight="1" ht="83">
+      <c r="A26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="8">
+        <v>5</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -862,8 +1513,9 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" customHeight="1" ht="409.6">
+      <c r="I27" s="26"/>
+    </row>
+    <row r="28" spans="1:10" customHeight="1" ht="409.6">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -871,8 +1523,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" customHeight="1" ht="409.6">
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:10" customHeight="1" ht="409.6">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -880,8 +1533,9 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" customHeight="1" ht="409.6">
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:10" customHeight="1" ht="409.6">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -889,8 +1543,9 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" customHeight="1" ht="409.6">
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:10" customHeight="1" ht="409.6">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -898,8 +1553,9 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" customHeight="1" ht="409.6">
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:10" customHeight="1" ht="409.6">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -907,8 +1563,9 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" customHeight="1" ht="409.6">
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:10" customHeight="1" ht="409.6">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -916,8 +1573,9 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" customHeight="1" ht="409.6">
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:10" customHeight="1" ht="409.6">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -925,8 +1583,9 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" customHeight="1" ht="409.6">
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:10" customHeight="1" ht="409.6">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -934,8 +1593,9 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" customHeight="1" ht="409.6">
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" customHeight="1" ht="409.6">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -944,7 +1604,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:9" customHeight="1" ht="409.6">
+    <row r="37" spans="1:10" customHeight="1" ht="409.6">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -953,7 +1613,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:9" customHeight="1" ht="409.6">
+    <row r="38" spans="1:10" customHeight="1" ht="409.6">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -962,7 +1622,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:9" customHeight="1" ht="409.6">
+    <row r="39" spans="1:10" customHeight="1" ht="409.6">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -971,7 +1631,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="3"/>
     </row>
-    <row r="40" spans="1:9" customHeight="1" ht="409.6">
+    <row r="40" spans="1:10" customHeight="1" ht="409.6">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -980,7 +1640,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="3"/>
     </row>
-    <row r="41" spans="1:9" customHeight="1" ht="409.6">
+    <row r="41" spans="1:10" customHeight="1" ht="409.6">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -989,7 +1649,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="3"/>
     </row>
-    <row r="42" spans="1:9" customHeight="1" ht="409.6">
+    <row r="42" spans="1:10" customHeight="1" ht="409.6">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -998,7 +1658,7 @@
       <c r="F42" s="4"/>
       <c r="G42" s="3"/>
     </row>
-    <row r="43" spans="1:9" customHeight="1" ht="409.6">
+    <row r="43" spans="1:10" customHeight="1" ht="409.6">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -1007,7 +1667,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="3"/>
     </row>
-    <row r="44" spans="1:9" customHeight="1" ht="409.6">
+    <row r="44" spans="1:10" customHeight="1" ht="409.6">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -1016,7 +1676,7 @@
       <c r="F44" s="4"/>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:9" customHeight="1" ht="409.6">
+    <row r="45" spans="1:10" customHeight="1" ht="409.6">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -1025,7 +1685,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
     </row>
-    <row r="46" spans="1:9" customHeight="1" ht="409.6">
+    <row r="46" spans="1:10" customHeight="1" ht="409.6">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1034,7 +1694,7 @@
       <c r="F46" s="4"/>
       <c r="G46" s="3"/>
     </row>
-    <row r="47" spans="1:9" customHeight="1" ht="409.6">
+    <row r="47" spans="1:10" customHeight="1" ht="409.6">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1043,7 +1703,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="3"/>
     </row>
-    <row r="48" spans="1:9" customHeight="1" ht="409.6">
+    <row r="48" spans="1:10" customHeight="1" ht="409.6">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1052,7 +1712,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="3"/>
     </row>
-    <row r="49" spans="1:9" customHeight="1" ht="409.6">
+    <row r="49" spans="1:10" customHeight="1" ht="409.6">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1061,7 +1721,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:9" customHeight="1" ht="409.6">
+    <row r="50" spans="1:10" customHeight="1" ht="409.6">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1070,7 +1730,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:9" customHeight="1" ht="409.6">
+    <row r="51" spans="1:10" customHeight="1" ht="409.6">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1079,7 +1739,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="3"/>
     </row>
-    <row r="52" spans="1:9" customHeight="1" ht="409.6">
+    <row r="52" spans="1:10" customHeight="1" ht="409.6">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1088,7 +1748,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="3"/>
     </row>
-    <row r="53" spans="1:9" customHeight="1" ht="409.6">
+    <row r="53" spans="1:10" customHeight="1" ht="409.6">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1097,7 +1757,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="3"/>
     </row>
-    <row r="54" spans="1:9" customHeight="1" ht="409.6">
+    <row r="54" spans="1:10" customHeight="1" ht="409.6">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1106,7 +1766,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="3"/>
     </row>
-    <row r="55" spans="1:9" customHeight="1" ht="409.6">
+    <row r="55" spans="1:10" customHeight="1" ht="409.6">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1115,7 +1775,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="3"/>
     </row>
-    <row r="56" spans="1:9" customHeight="1" ht="409.6">
+    <row r="56" spans="1:10" customHeight="1" ht="409.6">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1124,7 +1784,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="3"/>
     </row>
-    <row r="57" spans="1:9" customHeight="1" ht="409.6">
+    <row r="57" spans="1:10" customHeight="1" ht="409.6">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1133,7 +1793,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:9" customHeight="1" ht="409.6">
+    <row r="58" spans="1:10" customHeight="1" ht="409.6">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1142,7 +1802,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="3"/>
     </row>
-    <row r="59" spans="1:9" customHeight="1" ht="409.6">
+    <row r="59" spans="1:10" customHeight="1" ht="409.6">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1151,7 +1811,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="3"/>
     </row>
-    <row r="60" spans="1:9" customHeight="1" ht="409.6">
+    <row r="60" spans="1:10" customHeight="1" ht="409.6">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1160,7 +1820,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="3"/>
     </row>
-    <row r="61" spans="1:9" customHeight="1" ht="409.6">
+    <row r="61" spans="1:10" customHeight="1" ht="409.6">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1169,7 +1829,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="3"/>
     </row>
-    <row r="62" spans="1:9" customHeight="1" ht="409.6">
+    <row r="62" spans="1:10" customHeight="1" ht="409.6">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1178,7 +1838,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:9" customHeight="1" ht="409.6">
+    <row r="63" spans="1:10" customHeight="1" ht="409.6">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1187,7 +1847,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="3"/>
     </row>
-    <row r="64" spans="1:9" customHeight="1" ht="409.6">
+    <row r="64" spans="1:10" customHeight="1" ht="409.6">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1196,7 +1856,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:9" customHeight="1" ht="409.6">
+    <row r="65" spans="1:10" customHeight="1" ht="409.6">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1205,7 +1865,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:9" customHeight="1" ht="409.6">
+    <row r="66" spans="1:10" customHeight="1" ht="409.6">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
@@ -1214,7 +1874,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:9" customHeight="1" ht="409.6">
+    <row r="67" spans="1:10" customHeight="1" ht="409.6">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
@@ -1223,7 +1883,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:9" customHeight="1" ht="409.6">
+    <row r="68" spans="1:10" customHeight="1" ht="409.6">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
@@ -1232,7 +1892,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:9" customHeight="1" ht="409.6">
+    <row r="69" spans="1:10" customHeight="1" ht="409.6">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
@@ -1241,7 +1901,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:9" customHeight="1" ht="69.95">
+    <row r="70" spans="1:10" customHeight="1" ht="69.95">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
@@ -1250,7 +1910,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:9" customHeight="1" ht="409.6">
+    <row r="71" spans="1:10" customHeight="1" ht="409.6">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
@@ -1259,7 +1919,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:9" customHeight="1" ht="409.6">
+    <row r="72" spans="1:10" customHeight="1" ht="409.6">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
@@ -1268,7 +1928,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:9" customHeight="1" ht="409.6">
+    <row r="73" spans="1:10" customHeight="1" ht="409.6">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
@@ -1277,7 +1937,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="3"/>
     </row>
-    <row r="74" spans="1:9" customHeight="1" ht="409.6">
+    <row r="74" spans="1:10" customHeight="1" ht="409.6">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
@@ -1286,7 +1946,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:9" customHeight="1" ht="409.6">
+    <row r="75" spans="1:10" customHeight="1" ht="409.6">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
@@ -1295,7 +1955,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="3"/>
     </row>
-    <row r="76" spans="1:9" customHeight="1" ht="409.6">
+    <row r="76" spans="1:10" customHeight="1" ht="409.6">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
@@ -1304,7 +1964,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="3"/>
     </row>
-    <row r="77" spans="1:9" customHeight="1" ht="409.6">
+    <row r="77" spans="1:10" customHeight="1" ht="409.6">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -1313,7 +1973,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="3"/>
     </row>
-    <row r="78" spans="1:9" customHeight="1" ht="409.6">
+    <row r="78" spans="1:10" customHeight="1" ht="409.6">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -1322,7 +1982,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="3"/>
     </row>
-    <row r="79" spans="1:9" customHeight="1" ht="409.6">
+    <row r="79" spans="1:10" customHeight="1" ht="409.6">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -1331,7 +1991,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="3"/>
     </row>
-    <row r="80" spans="1:9" customHeight="1" ht="409.6">
+    <row r="80" spans="1:10" customHeight="1" ht="409.6">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -1340,7 +2000,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:9" customHeight="1" ht="409.6">
+    <row r="81" spans="1:10" customHeight="1" ht="409.6">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -1349,7 +2009,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:9" customHeight="1" ht="409.6">
+    <row r="82" spans="1:10" customHeight="1" ht="409.6">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -1358,7 +2018,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:9" customHeight="1" ht="409.6">
+    <row r="83" spans="1:10" customHeight="1" ht="409.6">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -1367,7 +2027,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:9" customHeight="1" ht="409.6">
+    <row r="84" spans="1:10" customHeight="1" ht="409.6">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -1376,7 +2036,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:9" customHeight="1" ht="409.6">
+    <row r="85" spans="1:10" customHeight="1" ht="409.6">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -1385,7 +2045,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:9" customHeight="1" ht="409.6">
+    <row r="86" spans="1:10" customHeight="1" ht="409.6">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -1394,7 +2054,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:9" customHeight="1" ht="409.6">
+    <row r="87" spans="1:10" customHeight="1" ht="409.6">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -1403,7 +2063,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:9" customHeight="1" ht="409.6">
+    <row r="88" spans="1:10" customHeight="1" ht="409.6">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -1412,7 +2072,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:9" customHeight="1" ht="409.6">
+    <row r="89" spans="1:10" customHeight="1" ht="409.6">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -1421,7 +2081,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:9" customHeight="1" ht="409.6">
+    <row r="90" spans="1:10" customHeight="1" ht="409.6">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -1430,7 +2090,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:9" customHeight="1" ht="409.6">
+    <row r="91" spans="1:10" customHeight="1" ht="409.6">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -1439,7 +2099,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:9" customHeight="1" ht="409.6">
+    <row r="92" spans="1:10" customHeight="1" ht="409.6">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -1448,7 +2108,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:9" customHeight="1" ht="409.6">
+    <row r="93" spans="1:10" customHeight="1" ht="409.6">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -1457,7 +2117,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:9" customHeight="1" ht="409.6">
+    <row r="94" spans="1:10" customHeight="1" ht="409.6">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -1466,7 +2126,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:9" customHeight="1" ht="409.6">
+    <row r="95" spans="1:10" customHeight="1" ht="409.6">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -1475,7 +2135,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:9" customHeight="1" ht="409.6">
+    <row r="96" spans="1:10" customHeight="1" ht="409.6">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -1484,7 +2144,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:9" customHeight="1" ht="409.6">
+    <row r="97" spans="1:10" customHeight="1" ht="409.6">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -1493,7 +2153,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="3"/>
     </row>
-    <row r="98" spans="1:9" customHeight="1" ht="409.6">
+    <row r="98" spans="1:10" customHeight="1" ht="409.6">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -1502,7 +2162,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:9" customHeight="1" ht="409.6">
+    <row r="99" spans="1:10" customHeight="1" ht="409.6">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -1511,7 +2171,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:9" customHeight="1" ht="409.6">
+    <row r="100" spans="1:10" customHeight="1" ht="409.6">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -1520,7 +2180,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:9" customHeight="1" ht="409.6">
+    <row r="101" spans="1:10" customHeight="1" ht="409.6">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -1529,7 +2189,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:9" customHeight="1" ht="409.6">
+    <row r="102" spans="1:10" customHeight="1" ht="409.6">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -1538,7 +2198,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:9" customHeight="1" ht="409.6">
+    <row r="103" spans="1:10" customHeight="1" ht="409.6">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -1547,7 +2207,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:9" customHeight="1" ht="409.6">
+    <row r="104" spans="1:10" customHeight="1" ht="409.6">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -1556,7 +2216,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="3"/>
     </row>
-    <row r="105" spans="1:9" customHeight="1" ht="409.6">
+    <row r="105" spans="1:10" customHeight="1" ht="409.6">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -1565,7 +2225,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:9" customHeight="1" ht="409.6">
+    <row r="106" spans="1:10" customHeight="1" ht="409.6">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -1574,7 +2234,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:9" customHeight="1" ht="409.6">
+    <row r="107" spans="1:10" customHeight="1" ht="409.6">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
@@ -1583,7 +2243,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:9" customHeight="1" ht="409.6">
+    <row r="108" spans="1:10" customHeight="1" ht="409.6">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
@@ -1592,7 +2252,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:9" customHeight="1" ht="409.6">
+    <row r="109" spans="1:10" customHeight="1" ht="409.6">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
@@ -1601,7 +2261,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:9" customHeight="1" ht="409.6">
+    <row r="110" spans="1:10" customHeight="1" ht="409.6">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
@@ -1610,7 +2270,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:9" customHeight="1" ht="409.6">
+    <row r="111" spans="1:10" customHeight="1" ht="409.6">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
@@ -1619,7 +2279,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:9" customHeight="1" ht="409.6">
+    <row r="112" spans="1:10" customHeight="1" ht="409.6">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
@@ -1628,7 +2288,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="3"/>
     </row>
-    <row r="113" spans="1:9" customHeight="1" ht="409.6">
+    <row r="113" spans="1:10" customHeight="1" ht="409.6">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -1637,7 +2297,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:9" customHeight="1" ht="409.6">
+    <row r="114" spans="1:10" customHeight="1" ht="409.6">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -1646,7 +2306,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="3"/>
     </row>
-    <row r="115" spans="1:9" customHeight="1" ht="409.6">
+    <row r="115" spans="1:10" customHeight="1" ht="409.6">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
@@ -1655,7 +2315,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="3"/>
     </row>
-    <row r="116" spans="1:9" customHeight="1" ht="409.6">
+    <row r="116" spans="1:10" customHeight="1" ht="409.6">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
@@ -1664,7 +2324,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="3"/>
     </row>
-    <row r="117" spans="1:9" customHeight="1" ht="409.6">
+    <row r="117" spans="1:10" customHeight="1" ht="409.6">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
@@ -1673,7 +2333,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="3"/>
     </row>
-    <row r="118" spans="1:9" customHeight="1" ht="409.6">
+    <row r="118" spans="1:10" customHeight="1" ht="409.6">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
@@ -1682,7 +2342,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="3"/>
     </row>
-    <row r="119" spans="1:9" customHeight="1" ht="409.6">
+    <row r="119" spans="1:10" customHeight="1" ht="409.6">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -1691,7 +2351,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="3"/>
     </row>
-    <row r="120" spans="1:9" customHeight="1" ht="409.6">
+    <row r="120" spans="1:10" customHeight="1" ht="409.6">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
@@ -1700,7 +2360,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="3"/>
     </row>
-    <row r="121" spans="1:9" customHeight="1" ht="409.6">
+    <row r="121" spans="1:10" customHeight="1" ht="409.6">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
@@ -1709,7 +2369,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="3"/>
     </row>
-    <row r="122" spans="1:9" customHeight="1" ht="409.6">
+    <row r="122" spans="1:10" customHeight="1" ht="409.6">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
@@ -1718,7 +2378,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="3"/>
     </row>
-    <row r="123" spans="1:9" customHeight="1" ht="409.6">
+    <row r="123" spans="1:10" customHeight="1" ht="409.6">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
@@ -1727,7 +2387,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="3"/>
     </row>
-    <row r="124" spans="1:9" customHeight="1" ht="409.6">
+    <row r="124" spans="1:10" customHeight="1" ht="409.6">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
@@ -1736,7 +2396,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="3"/>
     </row>
-    <row r="125" spans="1:9" customHeight="1" ht="409.6">
+    <row r="125" spans="1:10" customHeight="1" ht="409.6">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -1745,7 +2405,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="3"/>
     </row>
-    <row r="126" spans="1:9" customHeight="1" ht="409.6">
+    <row r="126" spans="1:10" customHeight="1" ht="409.6">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -1754,7 +2414,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="3"/>
     </row>
-    <row r="127" spans="1:9" customHeight="1" ht="409.6">
+    <row r="127" spans="1:10" customHeight="1" ht="409.6">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -1763,7 +2423,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="3"/>
     </row>
-    <row r="128" spans="1:9" customHeight="1" ht="409.6">
+    <row r="128" spans="1:10" customHeight="1" ht="409.6">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -1772,7 +2432,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="3"/>
     </row>
-    <row r="129" spans="1:9" customHeight="1" ht="409.6">
+    <row r="129" spans="1:10" customHeight="1" ht="409.6">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
@@ -1781,7 +2441,7 @@
       <c r="F129" s="4"/>
       <c r="G129" s="3"/>
     </row>
-    <row r="130" spans="1:9" customHeight="1" ht="409.6">
+    <row r="130" spans="1:10" customHeight="1" ht="409.6">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
@@ -1790,7 +2450,7 @@
       <c r="F130" s="4"/>
       <c r="G130" s="3"/>
     </row>
-    <row r="131" spans="1:9" customHeight="1" ht="409.6">
+    <row r="131" spans="1:10" customHeight="1" ht="409.6">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
@@ -1799,7 +2459,7 @@
       <c r="F131" s="4"/>
       <c r="G131" s="3"/>
     </row>
-    <row r="132" spans="1:9" customHeight="1" ht="409.6">
+    <row r="132" spans="1:10" customHeight="1" ht="409.6">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
@@ -1808,7 +2468,7 @@
       <c r="F132" s="4"/>
       <c r="G132" s="3"/>
     </row>
-    <row r="133" spans="1:9" customHeight="1" ht="409.6">
+    <row r="133" spans="1:10" customHeight="1" ht="409.6">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
@@ -1817,7 +2477,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="3"/>
     </row>
-    <row r="134" spans="1:9" customHeight="1" ht="409.6">
+    <row r="134" spans="1:10" customHeight="1" ht="409.6">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
@@ -1826,7 +2486,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="3"/>
     </row>
-    <row r="135" spans="1:9" customHeight="1" ht="409.6">
+    <row r="135" spans="1:10" customHeight="1" ht="409.6">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
@@ -1835,7 +2495,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="3"/>
     </row>
-    <row r="136" spans="1:9" customHeight="1" ht="409.6">
+    <row r="136" spans="1:10" customHeight="1" ht="409.6">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -1844,7 +2504,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="3"/>
     </row>
-    <row r="137" spans="1:9" customHeight="1" ht="409.6">
+    <row r="137" spans="1:10" customHeight="1" ht="409.6">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
@@ -1853,7 +2513,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="3"/>
     </row>
-    <row r="138" spans="1:9" customHeight="1" ht="409.6">
+    <row r="138" spans="1:10" customHeight="1" ht="409.6">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
@@ -1862,7 +2522,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="3"/>
     </row>
-    <row r="139" spans="1:9" customHeight="1" ht="409.6">
+    <row r="139" spans="1:10" customHeight="1" ht="409.6">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
@@ -1871,7 +2531,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="3"/>
     </row>
-    <row r="140" spans="1:9" customHeight="1" ht="409.6">
+    <row r="140" spans="1:10" customHeight="1" ht="409.6">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
@@ -1880,7 +2540,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="3"/>
     </row>
-    <row r="141" spans="1:9" customHeight="1" ht="409.6">
+    <row r="141" spans="1:10" customHeight="1" ht="409.6">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
@@ -1889,7 +2549,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:9" customHeight="1" ht="409.6">
+    <row r="142" spans="1:10" customHeight="1" ht="409.6">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
@@ -1898,7 +2558,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="3"/>
     </row>
-    <row r="143" spans="1:9" customHeight="1" ht="409.6">
+    <row r="143" spans="1:10" customHeight="1" ht="409.6">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
@@ -1907,7 +2567,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="3"/>
     </row>
-    <row r="144" spans="1:9" customHeight="1" ht="409.6">
+    <row r="144" spans="1:10" customHeight="1" ht="409.6">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
@@ -1916,7 +2576,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="3"/>
     </row>
-    <row r="145" spans="1:9" customHeight="1" ht="409.6">
+    <row r="145" spans="1:10" customHeight="1" ht="409.6">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -1925,7 +2585,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:9" customHeight="1" ht="409.6">
+    <row r="146" spans="1:10" customHeight="1" ht="409.6">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -1934,7 +2594,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="3"/>
     </row>
-    <row r="147" spans="1:9" customHeight="1" ht="409.6">
+    <row r="147" spans="1:10" customHeight="1" ht="409.6">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
@@ -1943,7 +2603,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="3"/>
     </row>
-    <row r="148" spans="1:9" customHeight="1" ht="409.6">
+    <row r="148" spans="1:10" customHeight="1" ht="409.6">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
@@ -1952,7 +2612,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="3"/>
     </row>
-    <row r="149" spans="1:9" customHeight="1" ht="409.6">
+    <row r="149" spans="1:10" customHeight="1" ht="409.6">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
@@ -1961,7 +2621,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="3"/>
     </row>
-    <row r="150" spans="1:9" customHeight="1" ht="409.6">
+    <row r="150" spans="1:10" customHeight="1" ht="409.6">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
@@ -1970,7 +2630,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="3"/>
     </row>
-    <row r="151" spans="1:9" customHeight="1" ht="409.6">
+    <row r="151" spans="1:10" customHeight="1" ht="409.6">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -1979,7 +2639,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="3"/>
     </row>
-    <row r="152" spans="1:9" customHeight="1" ht="409.6">
+    <row r="152" spans="1:10" customHeight="1" ht="409.6">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
@@ -1988,7 +2648,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:9" customHeight="1" ht="409.6">
+    <row r="153" spans="1:10" customHeight="1" ht="409.6">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
@@ -1997,7 +2657,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="3"/>
     </row>
-    <row r="154" spans="1:9" customHeight="1" ht="409.6">
+    <row r="154" spans="1:10" customHeight="1" ht="409.6">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
@@ -2006,7 +2666,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="3"/>
     </row>
-    <row r="155" spans="1:9" customHeight="1" ht="409.6">
+    <row r="155" spans="1:10" customHeight="1" ht="409.6">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
@@ -2015,7 +2675,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="3"/>
     </row>
-    <row r="156" spans="1:9" customHeight="1" ht="409.6">
+    <row r="156" spans="1:10" customHeight="1" ht="409.6">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
@@ -2024,7 +2684,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="3"/>
     </row>
-    <row r="157" spans="1:9" customHeight="1" ht="409.6">
+    <row r="157" spans="1:10" customHeight="1" ht="409.6">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
@@ -2033,7 +2693,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="3"/>
     </row>
-    <row r="158" spans="1:9" customHeight="1" ht="409.6">
+    <row r="158" spans="1:10" customHeight="1" ht="409.6">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
@@ -2042,7 +2702,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="3"/>
     </row>
-    <row r="159" spans="1:9" customHeight="1" ht="409.6">
+    <row r="159" spans="1:10" customHeight="1" ht="409.6">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
@@ -2051,7 +2711,7 @@
       <c r="F159" s="4"/>
       <c r="G159" s="3"/>
     </row>
-    <row r="160" spans="1:9" customHeight="1" ht="409.6">
+    <row r="160" spans="1:10" customHeight="1" ht="409.6">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
@@ -2060,7 +2720,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="3"/>
     </row>
-    <row r="161" spans="1:9" customHeight="1" ht="409.6">
+    <row r="161" spans="1:10" customHeight="1" ht="409.6">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
@@ -2069,7 +2729,7 @@
       <c r="F161" s="4"/>
       <c r="G161" s="3"/>
     </row>
-    <row r="162" spans="1:9" customHeight="1" ht="409.6">
+    <row r="162" spans="1:10" customHeight="1" ht="409.6">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
@@ -2078,7 +2738,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="3"/>
     </row>
-    <row r="163" spans="1:9" customHeight="1" ht="409.6">
+    <row r="163" spans="1:10" customHeight="1" ht="409.6">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
@@ -2087,7 +2747,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="3"/>
     </row>
-    <row r="164" spans="1:9" customHeight="1" ht="409.6">
+    <row r="164" spans="1:10" customHeight="1" ht="409.6">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
@@ -2096,7 +2756,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="3"/>
     </row>
-    <row r="165" spans="1:9" customHeight="1" ht="409.6">
+    <row r="165" spans="1:10" customHeight="1" ht="409.6">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
@@ -2105,7 +2765,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="3"/>
     </row>
-    <row r="166" spans="1:9" customHeight="1" ht="409.6">
+    <row r="166" spans="1:10" customHeight="1" ht="409.6">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
@@ -2114,7 +2774,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="3"/>
     </row>
-    <row r="167" spans="1:9" customHeight="1" ht="409.6">
+    <row r="167" spans="1:10" customHeight="1" ht="409.6">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -2123,7 +2783,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="3"/>
     </row>
-    <row r="168" spans="1:9" customHeight="1" ht="409.6">
+    <row r="168" spans="1:10" customHeight="1" ht="409.6">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
@@ -2132,7 +2792,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="3"/>
     </row>
-    <row r="169" spans="1:9" customHeight="1" ht="409.6">
+    <row r="169" spans="1:10" customHeight="1" ht="409.6">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
@@ -2141,7 +2801,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="3"/>
     </row>
-    <row r="170" spans="1:9" customHeight="1" ht="409.6">
+    <row r="170" spans="1:10" customHeight="1" ht="409.6">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
@@ -2150,7 +2810,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="3"/>
     </row>
-    <row r="171" spans="1:9" customHeight="1" ht="409.6">
+    <row r="171" spans="1:10" customHeight="1" ht="409.6">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
@@ -2159,7 +2819,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="3"/>
     </row>
-    <row r="172" spans="1:9" customHeight="1" ht="409.6">
+    <row r="172" spans="1:10" customHeight="1" ht="409.6">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
@@ -2168,7 +2828,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="3"/>
     </row>
-    <row r="173" spans="1:9" customHeight="1" ht="409.6">
+    <row r="173" spans="1:10" customHeight="1" ht="409.6">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
@@ -2177,7 +2837,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="3"/>
     </row>
-    <row r="174" spans="1:9" customHeight="1" ht="409.6">
+    <row r="174" spans="1:10" customHeight="1" ht="409.6">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
@@ -2186,7 +2846,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="3"/>
     </row>
-    <row r="175" spans="1:9" customHeight="1" ht="409.6">
+    <row r="175" spans="1:10" customHeight="1" ht="409.6">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
@@ -2195,7 +2855,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="3"/>
     </row>
-    <row r="176" spans="1:9" customHeight="1" ht="409.6">
+    <row r="176" spans="1:10" customHeight="1" ht="409.6">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
@@ -2204,7 +2864,7 @@
       <c r="F176" s="4"/>
       <c r="G176" s="3"/>
     </row>
-    <row r="177" spans="1:9" customHeight="1" ht="409.6">
+    <row r="177" spans="1:10" customHeight="1" ht="409.6">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
@@ -2213,7 +2873,7 @@
       <c r="F177" s="4"/>
       <c r="G177" s="3"/>
     </row>
-    <row r="178" spans="1:9" customHeight="1" ht="409.6">
+    <row r="178" spans="1:10" customHeight="1" ht="409.6">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
@@ -2222,7 +2882,7 @@
       <c r="F178" s="4"/>
       <c r="G178" s="3"/>
     </row>
-    <row r="179" spans="1:9" customHeight="1" ht="409.6">
+    <row r="179" spans="1:10" customHeight="1" ht="409.6">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
@@ -2231,7 +2891,7 @@
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
     </row>
-    <row r="180" spans="1:9" customHeight="1" ht="409.6">
+    <row r="180" spans="1:10" customHeight="1" ht="409.6">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -2240,7 +2900,7 @@
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
     </row>
-    <row r="181" spans="1:9" customHeight="1" ht="409.6">
+    <row r="181" spans="1:10" customHeight="1" ht="409.6">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
@@ -2249,7 +2909,7 @@
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
     </row>
-    <row r="182" spans="1:9" customHeight="1" ht="409.6">
+    <row r="182" spans="1:10" customHeight="1" ht="409.6">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
@@ -2258,7 +2918,7 @@
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
     </row>
-    <row r="183" spans="1:9" customHeight="1" ht="409.6">
+    <row r="183" spans="1:10" customHeight="1" ht="409.6">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
@@ -2267,7 +2927,7 @@
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
     </row>
-    <row r="184" spans="1:9" customHeight="1" ht="409.6">
+    <row r="184" spans="1:10" customHeight="1" ht="409.6">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
@@ -2276,7 +2936,7 @@
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:9" customHeight="1" ht="409.6">
+    <row r="185" spans="1:10" customHeight="1" ht="409.6">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
@@ -2285,7 +2945,7 @@
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
     </row>
-    <row r="186" spans="1:9" customHeight="1" ht="409.6">
+    <row r="186" spans="1:10" customHeight="1" ht="409.6">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
@@ -2294,7 +2954,7 @@
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
     </row>
-    <row r="187" spans="1:9" customHeight="1" ht="409.6">
+    <row r="187" spans="1:10" customHeight="1" ht="409.6">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
@@ -2303,7 +2963,7 @@
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
     </row>
-    <row r="188" spans="1:9" customHeight="1" ht="409.6">
+    <row r="188" spans="1:10" customHeight="1" ht="409.6">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
@@ -2312,7 +2972,7 @@
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
     </row>
-    <row r="189" spans="1:9" customHeight="1" ht="409.6">
+    <row r="189" spans="1:10" customHeight="1" ht="409.6">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
@@ -2321,7 +2981,7 @@
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
     </row>
-    <row r="190" spans="1:9" customHeight="1" ht="409.6">
+    <row r="190" spans="1:10" customHeight="1" ht="409.6">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
@@ -2330,7 +2990,7 @@
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
     </row>
-    <row r="191" spans="1:9" customHeight="1" ht="409.6">
+    <row r="191" spans="1:10" customHeight="1" ht="409.6">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
@@ -2339,7 +2999,7 @@
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
     </row>
-    <row r="192" spans="1:9" customHeight="1" ht="409.6">
+    <row r="192" spans="1:10" customHeight="1" ht="409.6">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
@@ -2348,7 +3008,7 @@
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
     </row>
-    <row r="193" spans="1:9" customHeight="1" ht="409.6">
+    <row r="193" spans="1:10" customHeight="1" ht="409.6">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
@@ -2357,7 +3017,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
     </row>
-    <row r="194" spans="1:9" customHeight="1" ht="409.6">
+    <row r="194" spans="1:10" customHeight="1" ht="409.6">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -2366,7 +3026,7 @@
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
     </row>
-    <row r="195" spans="1:9" customHeight="1" ht="409.6">
+    <row r="195" spans="1:10" customHeight="1" ht="409.6">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
@@ -2375,7 +3035,7 @@
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
     </row>
-    <row r="196" spans="1:9" customHeight="1" ht="409.6">
+    <row r="196" spans="1:10" customHeight="1" ht="409.6">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
@@ -2384,7 +3044,7 @@
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
     </row>
-    <row r="197" spans="1:9" customHeight="1" ht="409.6">
+    <row r="197" spans="1:10" customHeight="1" ht="409.6">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
@@ -2393,7 +3053,7 @@
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
     </row>
-    <row r="198" spans="1:9" customHeight="1" ht="409.6">
+    <row r="198" spans="1:10" customHeight="1" ht="409.6">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
@@ -2402,7 +3062,7 @@
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
     </row>
-    <row r="199" spans="1:9" customHeight="1" ht="409.6">
+    <row r="199" spans="1:10" customHeight="1" ht="409.6">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
@@ -2411,7 +3071,7 @@
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
     </row>
-    <row r="200" spans="1:9" customHeight="1" ht="409.6">
+    <row r="200" spans="1:10" customHeight="1" ht="409.6">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
@@ -2420,7 +3080,7 @@
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
     </row>
-    <row r="201" spans="1:9" customHeight="1" ht="409.6">
+    <row r="201" spans="1:10" customHeight="1" ht="409.6">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
@@ -2429,7 +3089,7 @@
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
     </row>
-    <row r="202" spans="1:9" customHeight="1" ht="409.6">
+    <row r="202" spans="1:10" customHeight="1" ht="409.6">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
@@ -2438,7 +3098,7 @@
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
     </row>
-    <row r="203" spans="1:9" customHeight="1" ht="409.6">
+    <row r="203" spans="1:10" customHeight="1" ht="409.6">
       <c r="A203" s="4"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
@@ -2447,7 +3107,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
     </row>
-    <row r="204" spans="1:9" customHeight="1" ht="409.6">
+    <row r="204" spans="1:10" customHeight="1" ht="409.6">
       <c r="A204" s="4"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
@@ -2456,7 +3116,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
     </row>
-    <row r="205" spans="1:9" customHeight="1" ht="409.6">
+    <row r="205" spans="1:10" customHeight="1" ht="409.6">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
@@ -2465,7 +3125,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
     </row>
-    <row r="206" spans="1:9" customHeight="1" ht="409.6">
+    <row r="206" spans="1:10" customHeight="1" ht="409.6">
       <c r="A206" s="4"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
@@ -2474,7 +3134,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
     </row>
-    <row r="207" spans="1:9" customHeight="1" ht="409.6">
+    <row r="207" spans="1:10" customHeight="1" ht="409.6">
       <c r="A207" s="4"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
@@ -2483,7 +3143,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
     </row>
-    <row r="208" spans="1:9" customHeight="1" ht="409.6">
+    <row r="208" spans="1:10" customHeight="1" ht="409.6">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
@@ -2492,7 +3152,7 @@
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
     </row>
-    <row r="209" spans="1:9" customHeight="1" ht="409.6">
+    <row r="209" spans="1:10" customHeight="1" ht="409.6">
       <c r="A209" s="4"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
@@ -2501,7 +3161,7 @@
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
     </row>
-    <row r="210" spans="1:9" customHeight="1" ht="409.6">
+    <row r="210" spans="1:10" customHeight="1" ht="409.6">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
@@ -2510,7 +3170,7 @@
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
     </row>
-    <row r="211" spans="1:9" customHeight="1" ht="409.6">
+    <row r="211" spans="1:10" customHeight="1" ht="409.6">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
@@ -2519,7 +3179,7 @@
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
     </row>
-    <row r="212" spans="1:9" customHeight="1" ht="409.6">
+    <row r="212" spans="1:10" customHeight="1" ht="409.6">
       <c r="A212" s="4"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
@@ -2528,7 +3188,7 @@
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
     </row>
-    <row r="213" spans="1:9" customHeight="1" ht="409.6">
+    <row r="213" spans="1:10" customHeight="1" ht="409.6">
       <c r="A213" s="4"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
@@ -2537,7 +3197,7 @@
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
     </row>
-    <row r="214" spans="1:9" customHeight="1" ht="409.6">
+    <row r="214" spans="1:10" customHeight="1" ht="409.6">
       <c r="A214" s="4"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
@@ -2546,7 +3206,7 @@
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
     </row>
-    <row r="215" spans="1:9" customHeight="1" ht="409.6">
+    <row r="215" spans="1:10" customHeight="1" ht="409.6">
       <c r="A215" s="4"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
@@ -2555,7 +3215,7 @@
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
     </row>
-    <row r="216" spans="1:9" customHeight="1" ht="409.6">
+    <row r="216" spans="1:10" customHeight="1" ht="409.6">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
@@ -2564,7 +3224,7 @@
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
     </row>
-    <row r="217" spans="1:9" customHeight="1" ht="409.6">
+    <row r="217" spans="1:10" customHeight="1" ht="409.6">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
@@ -2573,7 +3233,7 @@
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
     </row>
-    <row r="218" spans="1:9" customHeight="1" ht="409.6">
+    <row r="218" spans="1:10" customHeight="1" ht="409.6">
       <c r="A218" s="4"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
@@ -2582,7 +3242,7 @@
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
     </row>
-    <row r="219" spans="1:9" customHeight="1" ht="409.6">
+    <row r="219" spans="1:10" customHeight="1" ht="409.6">
       <c r="A219" s="4"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
@@ -2591,7 +3251,7 @@
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
     </row>
-    <row r="220" spans="1:9" customHeight="1" ht="409.6">
+    <row r="220" spans="1:10" customHeight="1" ht="409.6">
       <c r="A220" s="4"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
@@ -2600,7 +3260,7 @@
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
     </row>
-    <row r="221" spans="1:9" customHeight="1" ht="409.6">
+    <row r="221" spans="1:10" customHeight="1" ht="409.6">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
@@ -2609,7 +3269,7 @@
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
     </row>
-    <row r="222" spans="1:9" customHeight="1" ht="409.6">
+    <row r="222" spans="1:10" customHeight="1" ht="409.6">
       <c r="A222" s="4"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
@@ -2618,7 +3278,7 @@
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
     </row>
-    <row r="223" spans="1:9" customHeight="1" ht="409.6">
+    <row r="223" spans="1:10" customHeight="1" ht="409.6">
       <c r="A223" s="4"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
@@ -2627,7 +3287,7 @@
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
     </row>
-    <row r="224" spans="1:9" customHeight="1" ht="409.6">
+    <row r="224" spans="1:10" customHeight="1" ht="409.6">
       <c r="A224" s="4"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
@@ -2636,7 +3296,7 @@
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
     </row>
-    <row r="225" spans="1:9" customHeight="1" ht="409.6">
+    <row r="225" spans="1:10" customHeight="1" ht="409.6">
       <c r="A225" s="4"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
@@ -2645,7 +3305,7 @@
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
     </row>
-    <row r="226" spans="1:9" customHeight="1" ht="409.6">
+    <row r="226" spans="1:10" customHeight="1" ht="409.6">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
@@ -2654,7 +3314,7 @@
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
     </row>
-    <row r="227" spans="1:9" customHeight="1" ht="409.6">
+    <row r="227" spans="1:10" customHeight="1" ht="409.6">
       <c r="A227" s="4"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
@@ -2663,7 +3323,7 @@
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
     </row>
-    <row r="228" spans="1:9" customHeight="1" ht="409.6">
+    <row r="228" spans="1:10" customHeight="1" ht="409.6">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
@@ -2672,7 +3332,7 @@
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
-    <row r="229" spans="1:9" customHeight="1" ht="409.6">
+    <row r="229" spans="1:10" customHeight="1" ht="409.6">
       <c r="A229" s="4"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
@@ -2681,7 +3341,7 @@
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
     </row>
-    <row r="230" spans="1:9" customHeight="1" ht="409.6">
+    <row r="230" spans="1:10" customHeight="1" ht="409.6">
       <c r="A230" s="4"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
@@ -2690,7 +3350,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
     </row>
-    <row r="231" spans="1:9" customHeight="1" ht="409.6">
+    <row r="231" spans="1:10" customHeight="1" ht="409.6">
       <c r="A231" s="4"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
@@ -2699,7 +3359,7 @@
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
     </row>
-    <row r="232" spans="1:9" customHeight="1" ht="409.6">
+    <row r="232" spans="1:10" customHeight="1" ht="409.6">
       <c r="A232" s="4"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
@@ -2708,7 +3368,7 @@
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
     </row>
-    <row r="233" spans="1:9" customHeight="1" ht="409.6">
+    <row r="233" spans="1:10" customHeight="1" ht="409.6">
       <c r="A233" s="4"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
@@ -2717,7 +3377,7 @@
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
     </row>
-    <row r="234" spans="1:9" customHeight="1" ht="409.6">
+    <row r="234" spans="1:10" customHeight="1" ht="409.6">
       <c r="A234" s="3"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -2726,7 +3386,7 @@
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
     </row>
-    <row r="235" spans="1:9" customHeight="1" ht="409.6">
+    <row r="235" spans="1:10" customHeight="1" ht="409.6">
       <c r="A235" s="3"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -2735,33 +3395,34 @@
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
     </row>
-    <row r="236" spans="1:9" customHeight="1" ht="409.6">
+    <row r="236" spans="1:10" customHeight="1" ht="409.6">
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
     </row>
-    <row r="237" spans="1:9" customHeight="1" ht="409.6">
+    <row r="237" spans="1:10" customHeight="1" ht="409.6">
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238" spans="1:9" customHeight="1" ht="409.6">
+    <row r="238" spans="1:10" customHeight="1" ht="409.6">
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
     </row>
-    <row r="239" spans="1:9" customHeight="1" ht="409.6">
+    <row r="239" spans="1:10" customHeight="1" ht="409.6">
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
     </row>
-    <row r="240" spans="1:9" customHeight="1" ht="409.6">
+    <row r="240" spans="1:10" customHeight="1" ht="409.6">
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="1:9" customHeight="1" ht="409.6">
+    <row r="241" spans="1:10" customHeight="1" ht="409.6">
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="A6:G7"/>

--- a/export_calendar.xlsx
+++ b/export_calendar.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Activites for  February 2020</t>
   </si>
@@ -47,260 +47,6 @@
   </si>
   <si>
     <t>Posted Date</t>
-  </si>
-  <si>
-    <t>Training of Trainers for the Roll-out of Human Resource Information System (HRIS) and Document Management System (DMS)</t>
-  </si>
-  <si>
-    <t>02/18/20</t>
-  </si>
-  <si>
-    <t>02/21/20</t>
-  </si>
-  <si>
-    <t>FAD</t>
-  </si>
-  <si>
-    <t>Hive Hotel, Quezon City</t>
-  </si>
-  <si>
-    <t>Maybelline Monteiro and Charles Adrian Odi</t>
-  </si>
-  <si>
-    <t>mmmonteiro</t>
-  </si>
-  <si>
-    <t>01/22/20</t>
-  </si>
-  <si>
-    <t>1st Quarter 2020 SCMDA Meetin</t>
-  </si>
-  <si>
-    <t>02/11/20</t>
-  </si>
-  <si>
-    <t>ORD</t>
-  </si>
-  <si>
-    <t>NEDA R-4A, Calamba City</t>
-  </si>
-  <si>
-    <t>RD Eli 
-Ms Faye</t>
-  </si>
-  <si>
-    <t>jbescalante</t>
-  </si>
-  <si>
-    <t>01/23/20</t>
-  </si>
-  <si>
-    <t>CAPDEV and Learning Session in Preparation for FY 2021 Program/Project Proposal</t>
-  </si>
-  <si>
-    <t>02/20/20</t>
-  </si>
-  <si>
-    <t>Clark, Pampanga</t>
-  </si>
-  <si>
-    <t>RD Eli
-Ms Faye
-Sir Joma</t>
-  </si>
-  <si>
-    <t>01/29/20</t>
-  </si>
-  <si>
-    <t>MONTHLY MANAGEMENT COMMITTEE (MANCOM) MEETING</t>
-  </si>
-  <si>
-    <t>02/03/20</t>
-  </si>
-  <si>
-    <t>Batangas City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RD Eli </t>
-  </si>
-  <si>
-    <t>01/31/20</t>
-  </si>
-  <si>
-    <t>RCC Meeting 2020</t>
-  </si>
-  <si>
-    <t>02/06/20</t>
-  </si>
-  <si>
-    <t>1898 Hotel Colonia En Las Filipinas</t>
-  </si>
-  <si>
-    <t>RD Eli and Ms Charisse</t>
-  </si>
-  <si>
-    <t>AWARDING OF PLAQUE OF RECOGNITION TO THE WINNERS OF MANILA BAY DAY 2019</t>
-  </si>
-  <si>
-    <t>LGCDD-MBRTG</t>
-  </si>
-  <si>
-    <t>San Pedro, Laguna</t>
-  </si>
-  <si>
-    <t>Eunice Sales, Christian Dacanay</t>
-  </si>
-  <si>
-    <t>caporras</t>
-  </si>
-  <si>
-    <t>02/10/20</t>
-  </si>
-  <si>
-    <t>Calamba, Laguna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REVISITING SUPREME COURT’S MANDAMUS: MANILA BAY CLEAN UP, REHABILITATION AND PRESERVATION PROGRAM </t>
-  </si>
-  <si>
-    <t>Monte Vista Hotsprings and Conference Resort, City of Calamba, Laguna</t>
-  </si>
-  <si>
-    <t>JAY-AR T. BELTRAN  BRIAN B. BALLON EUNICE A. SALES
-MBRTG
-FOs</t>
-  </si>
-  <si>
-    <t>Planning Conference for Cy 2020 1st semester opb targets and opcr commitments</t>
-  </si>
-  <si>
-    <t>DILG IV-A Conference room</t>
-  </si>
-  <si>
-    <t>Planning Officers from Divisions and POs/HUC</t>
-  </si>
-  <si>
-    <t>jdtorres</t>
-  </si>
-  <si>
-    <t>CDP Training in Quezon Province</t>
-  </si>
-  <si>
-    <t>LGCDD</t>
-  </si>
-  <si>
-    <t>Quezon Province</t>
-  </si>
-  <si>
-    <t>LGU</t>
-  </si>
-  <si>
-    <t>krgogolin</t>
-  </si>
-  <si>
-    <t>02/13/20</t>
-  </si>
-  <si>
-    <t>Revisiting the SC Mandamus on Manila Bay</t>
-  </si>
-  <si>
-    <t>Montevista, Calamba, Laguna</t>
-  </si>
-  <si>
-    <t>Old and New Program Officers, Central Office, Provincial Directors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUB-CBMS </t>
-  </si>
-  <si>
-    <t>02/26/20</t>
-  </si>
-  <si>
-    <t>Famy, Laguna</t>
-  </si>
-  <si>
-    <t>LGU Famy</t>
-  </si>
-  <si>
-    <t>mbenomis</t>
-  </si>
-  <si>
-    <t>02/14/20</t>
-  </si>
-  <si>
-    <t>LGMED-LGMES First Quarter Meeting cum FDP and DRR Meeting</t>
-  </si>
-  <si>
-    <t>LGMED</t>
-  </si>
-  <si>
-    <t>Highlands Resort Pansol Calamba City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LGMED-PDMU Team
-LGMES Chief and Assistant
-Senior Staff
-</t>
-  </si>
-  <si>
-    <t>gltumamac</t>
-  </si>
-  <si>
-    <t>02/19/20</t>
-  </si>
-  <si>
-    <t>ECLIP Cluster and other ELCAC Clusters of DILG (Meeting)</t>
-  </si>
-  <si>
-    <t>02/28/20</t>
-  </si>
-  <si>
-    <t>DILG IV-A Conference Room</t>
-  </si>
-  <si>
-    <t>DILG Regional ELCAC Team and Partner NGAs</t>
-  </si>
-  <si>
-    <t>Request for Assistance to Identify the Legal Boundary of Barangays/Cities/Municipalities/Provinces in CALABARZON</t>
-  </si>
-  <si>
-    <t>02/27/20</t>
-  </si>
-  <si>
-    <t>PSA Regional Office, Lipa City, Batangas</t>
-  </si>
-  <si>
-    <t>Participants:
-Gilberto L. Tumamac
-Jordan V. Nadal
-Jose Maria T. Revadavia</t>
-  </si>
-  <si>
-    <t>jmhernandez</t>
-  </si>
-  <si>
-    <t>1st Manila Bay Coordination Meeting</t>
-  </si>
-  <si>
-    <t>11/30/-1</t>
-  </si>
-  <si>
-    <t>DILG-NAPOLCOM Center, Edsa Corner Quezon Avenue, Quezon City, 1104 Metro Manila, Philippines</t>
-  </si>
-  <si>
-    <t>MBRTG</t>
-  </si>
-  <si>
-    <t>03/02/20</t>
-  </si>
-  <si>
-    <t>1st Coordination Meeting of Manila Bay TWG</t>
-  </si>
-  <si>
-    <t>CHRISTIAN DACANAY ABEL FULGENCIO ROSLIN GUTIERREZ CHERIELYN PORRAS DON PAOLO TEODORO</t>
-  </si>
-  <si>
-    <t>03/11/20</t>
   </si>
 </sst>
 </file>
@@ -476,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -506,6 +252,9 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -925,7 +674,7 @@
   <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -947,563 +696,257 @@
       <c r="A2"/>
     </row>
     <row r="6" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="22"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:10" customHeight="1" ht="30">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="23"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="83">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="10">
-        <v>40</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="83">
-      <c r="A11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="10">
-        <v>2</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="83">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="10">
-        <v>2</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="83">
-      <c r="A13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="10">
-        <v>15</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="40">
-      <c r="A14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="10">
-        <v>2</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="83">
-      <c r="A15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="10">
-        <v>2</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="83">
-      <c r="A16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="10">
-        <v>2</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="83">
-      <c r="A17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="8">
-        <v>33</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="83">
-      <c r="A18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="8">
-        <v>22</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" customHeight="1" ht="83">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="8">
-        <v>3</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="83">
-      <c r="A20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="8">
-        <v>20</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="40">
-      <c r="A21" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="8">
-        <v>10</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="83">
-      <c r="A22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="8">
-        <v>45</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="83">
-      <c r="A23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="8">
-        <v>30</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="83">
-      <c r="A24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="8">
-        <v>3</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" customHeight="1" ht="83">
-      <c r="A25" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F25" s="8">
-        <v>5</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="83">
-      <c r="A26" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="8">
-        <v>5</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>90</v>
-      </c>
+      <c r="A9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:10" customHeight="1" ht="39.95">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="16" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="27"/>
+    </row>
+    <row r="20" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:10" customHeight="1" ht="39.95">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="27"/>
+    </row>
+    <row r="23" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="27"/>
+    </row>
+    <row r="24" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="27"/>
+    </row>
+    <row r="25" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" spans="1:10" customHeight="1" ht="83.1">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4"/>
@@ -1513,7 +956,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-      <c r="I27" s="26"/>
+      <c r="I27" s="27"/>
     </row>
     <row r="28" spans="1:10" customHeight="1" ht="409.6">
       <c r="A28" s="4"/>
@@ -1523,7 +966,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
-      <c r="I28" s="26"/>
+      <c r="I28" s="27"/>
     </row>
     <row r="29" spans="1:10" customHeight="1" ht="409.6">
       <c r="A29" s="4"/>
@@ -1533,7 +976,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-      <c r="I29" s="26"/>
+      <c r="I29" s="27"/>
     </row>
     <row r="30" spans="1:10" customHeight="1" ht="409.6">
       <c r="A30" s="4"/>
@@ -1543,7 +986,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
-      <c r="I30" s="26"/>
+      <c r="I30" s="27"/>
     </row>
     <row r="31" spans="1:10" customHeight="1" ht="409.6">
       <c r="A31" s="4"/>
@@ -1553,7 +996,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
-      <c r="I31" s="26"/>
+      <c r="I31" s="27"/>
     </row>
     <row r="32" spans="1:10" customHeight="1" ht="409.6">
       <c r="A32" s="4"/>
@@ -1563,7 +1006,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
-      <c r="I32" s="26"/>
+      <c r="I32" s="27"/>
     </row>
     <row r="33" spans="1:10" customHeight="1" ht="409.6">
       <c r="A33" s="4"/>
@@ -1573,7 +1016,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
-      <c r="I33" s="26"/>
+      <c r="I33" s="27"/>
     </row>
     <row r="34" spans="1:10" customHeight="1" ht="409.6">
       <c r="A34" s="4"/>
@@ -1583,7 +1026,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
-      <c r="I34" s="26"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="1:10" customHeight="1" ht="409.6">
       <c r="A35" s="4"/>
@@ -1593,7 +1036,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
-      <c r="I35" s="26"/>
+      <c r="I35" s="27"/>
     </row>
     <row r="36" spans="1:10" customHeight="1" ht="409.6">
       <c r="A36" s="4"/>

--- a/export_calendar.xlsx
+++ b/export_calendar.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>Activites for  February 2020</t>
   </si>
@@ -47,6 +47,260 @@
   </si>
   <si>
     <t>Posted Date</t>
+  </si>
+  <si>
+    <t>Training of Trainers for the Roll-out of Human Resource Information System (HRIS) and Document Management System (DMS)</t>
+  </si>
+  <si>
+    <t>02/18/20</t>
+  </si>
+  <si>
+    <t>02/21/20</t>
+  </si>
+  <si>
+    <t>FAD</t>
+  </si>
+  <si>
+    <t>Hive Hotel, Quezon City</t>
+  </si>
+  <si>
+    <t>Maybelline Monteiro and Charles Adrian Odi</t>
+  </si>
+  <si>
+    <t>mmmonteiro</t>
+  </si>
+  <si>
+    <t>01/22/20</t>
+  </si>
+  <si>
+    <t>1st Quarter 2020 SCMDA Meetin</t>
+  </si>
+  <si>
+    <t>02/11/20</t>
+  </si>
+  <si>
+    <t>ORD</t>
+  </si>
+  <si>
+    <t>NEDA R-4A, Calamba City</t>
+  </si>
+  <si>
+    <t>RD Eli 
+Ms Faye</t>
+  </si>
+  <si>
+    <t>jbescalante</t>
+  </si>
+  <si>
+    <t>01/23/20</t>
+  </si>
+  <si>
+    <t>CAPDEV and Learning Session in Preparation for FY 2021 Program/Project Proposal</t>
+  </si>
+  <si>
+    <t>02/20/20</t>
+  </si>
+  <si>
+    <t>Clark, Pampanga</t>
+  </si>
+  <si>
+    <t>RD Eli
+Ms Faye
+Sir Joma</t>
+  </si>
+  <si>
+    <t>01/29/20</t>
+  </si>
+  <si>
+    <t>MONTHLY MANAGEMENT COMMITTEE (MANCOM) MEETING</t>
+  </si>
+  <si>
+    <t>02/03/20</t>
+  </si>
+  <si>
+    <t>Batangas City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RD Eli </t>
+  </si>
+  <si>
+    <t>01/31/20</t>
+  </si>
+  <si>
+    <t>RCC Meeting 2020</t>
+  </si>
+  <si>
+    <t>02/06/20</t>
+  </si>
+  <si>
+    <t>1898 Hotel Colonia En Las Filipinas</t>
+  </si>
+  <si>
+    <t>RD Eli and Ms Charisse</t>
+  </si>
+  <si>
+    <t>AWARDING OF PLAQUE OF RECOGNITION TO THE WINNERS OF MANILA BAY DAY 2019</t>
+  </si>
+  <si>
+    <t>LGCDD-MBRTG</t>
+  </si>
+  <si>
+    <t>San Pedro, Laguna</t>
+  </si>
+  <si>
+    <t>Eunice Sales, Christian Dacanay</t>
+  </si>
+  <si>
+    <t>caporras</t>
+  </si>
+  <si>
+    <t>02/10/20</t>
+  </si>
+  <si>
+    <t>Calamba, Laguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REVISITING SUPREME COURT’S MANDAMUS: MANILA BAY CLEAN UP, REHABILITATION AND PRESERVATION PROGRAM </t>
+  </si>
+  <si>
+    <t>Monte Vista Hotsprings and Conference Resort, City of Calamba, Laguna</t>
+  </si>
+  <si>
+    <t>JAY-AR T. BELTRAN  BRIAN B. BALLON EUNICE A. SALES
+MBRTG
+FOs</t>
+  </si>
+  <si>
+    <t>Planning Conference for Cy 2020 1st semester opb targets and opcr commitments</t>
+  </si>
+  <si>
+    <t>DILG IV-A Conference room</t>
+  </si>
+  <si>
+    <t>Planning Officers from Divisions and POs/HUC</t>
+  </si>
+  <si>
+    <t>jdtorres</t>
+  </si>
+  <si>
+    <t>CDP Training in Quezon Province</t>
+  </si>
+  <si>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t>Quezon Province</t>
+  </si>
+  <si>
+    <t>LGU</t>
+  </si>
+  <si>
+    <t>krgogolin</t>
+  </si>
+  <si>
+    <t>02/13/20</t>
+  </si>
+  <si>
+    <t>Revisiting the SC Mandamus on Manila Bay</t>
+  </si>
+  <si>
+    <t>Montevista, Calamba, Laguna</t>
+  </si>
+  <si>
+    <t>Old and New Program Officers, Central Office, Provincial Directors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUB-CBMS </t>
+  </si>
+  <si>
+    <t>02/26/20</t>
+  </si>
+  <si>
+    <t>Famy, Laguna</t>
+  </si>
+  <si>
+    <t>LGU Famy</t>
+  </si>
+  <si>
+    <t>mbenomis</t>
+  </si>
+  <si>
+    <t>02/14/20</t>
+  </si>
+  <si>
+    <t>LGMED-LGMES First Quarter Meeting cum FDP and DRR Meeting</t>
+  </si>
+  <si>
+    <t>LGMED</t>
+  </si>
+  <si>
+    <t>Highlands Resort Pansol Calamba City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGMED-PDMU Team
+LGMES Chief and Assistant
+Senior Staff
+</t>
+  </si>
+  <si>
+    <t>gltumamac</t>
+  </si>
+  <si>
+    <t>02/19/20</t>
+  </si>
+  <si>
+    <t>ECLIP Cluster and other ELCAC Clusters of DILG (Meeting)</t>
+  </si>
+  <si>
+    <t>02/28/20</t>
+  </si>
+  <si>
+    <t>DILG IV-A Conference Room</t>
+  </si>
+  <si>
+    <t>DILG Regional ELCAC Team and Partner NGAs</t>
+  </si>
+  <si>
+    <t>Request for Assistance to Identify the Legal Boundary of Barangays/Cities/Municipalities/Provinces in CALABARZON</t>
+  </si>
+  <si>
+    <t>02/27/20</t>
+  </si>
+  <si>
+    <t>PSA Regional Office, Lipa City, Batangas</t>
+  </si>
+  <si>
+    <t>Participants:
+Gilberto L. Tumamac
+Jordan V. Nadal
+Jose Maria T. Revadavia</t>
+  </si>
+  <si>
+    <t>jmhernandez</t>
+  </si>
+  <si>
+    <t>1st Manila Bay Coordination Meeting</t>
+  </si>
+  <si>
+    <t>11/30/-1</t>
+  </si>
+  <si>
+    <t>DILG-NAPOLCOM Center, Edsa Corner Quezon Avenue, Quezon City, 1104 Metro Manila, Philippines</t>
+  </si>
+  <si>
+    <t>MBRTG</t>
+  </si>
+  <si>
+    <t>03/02/20</t>
+  </si>
+  <si>
+    <t>1st Coordination Meeting of Manila Bay TWG</t>
+  </si>
+  <si>
+    <t>CHRISTIAN DACANAY ABEL FULGENCIO ROSLIN GUTIERREZ CHERIELYN PORRAS DON PAOLO TEODORO</t>
+  </si>
+  <si>
+    <t>03/11/20</t>
   </si>
 </sst>
 </file>
@@ -222,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -252,9 +506,6 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="165" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
@@ -674,7 +925,7 @@
   <dimension ref="A1:J241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,257 +947,563 @@
       <c r="A2"/>
     </row>
     <row r="6" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:10" customHeight="1" ht="14.45">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="23"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:10" customHeight="1" ht="30">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="21" t="s">
+      <c r="G8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A9" s="15"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="39.95">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="27"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="27"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="27"/>
-    </row>
-    <row r="19" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="27"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="39.95">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="27"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="27"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="27"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="27"/>
-    </row>
-    <row r="25" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="27"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="83.1">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="27"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:10" customHeight="1" ht="93">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="10">
+        <v>40</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" customHeight="1" ht="93">
+      <c r="A11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" customHeight="1" ht="93">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" customHeight="1" ht="93">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="10">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" customHeight="1" ht="40">
+      <c r="A14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" customHeight="1" ht="93">
+      <c r="A15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="10">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" customHeight="1" ht="93">
+      <c r="A16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="10">
+        <v>2</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" customHeight="1" ht="93">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="8">
+        <v>33</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" customHeight="1" ht="93">
+      <c r="A18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="8">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" customHeight="1" ht="93">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" customHeight="1" ht="93">
+      <c r="A20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="8">
+        <v>20</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" customHeight="1" ht="40">
+      <c r="A21" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="8">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" customHeight="1" ht="93">
+      <c r="A22" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="8">
+        <v>45</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" customHeight="1" ht="93">
+      <c r="A23" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="8">
+        <v>30</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" customHeight="1" ht="93">
+      <c r="A24" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" customHeight="1" ht="93">
+      <c r="A25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="8">
+        <v>5</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" customHeight="1" ht="93">
+      <c r="A26" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="8">
+        <v>5</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4"/>
@@ -956,7 +1513,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4"/>
       <c r="G27" s="3"/>
-      <c r="I27" s="27"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:10" customHeight="1" ht="409.6">
       <c r="A28" s="4"/>
@@ -966,7 +1523,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
-      <c r="I28" s="27"/>
+      <c r="I28" s="26"/>
     </row>
     <row r="29" spans="1:10" customHeight="1" ht="409.6">
       <c r="A29" s="4"/>
@@ -976,7 +1533,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4"/>
       <c r="G29" s="3"/>
-      <c r="I29" s="27"/>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="1:10" customHeight="1" ht="409.6">
       <c r="A30" s="4"/>
@@ -986,7 +1543,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
       <c r="G30" s="3"/>
-      <c r="I30" s="27"/>
+      <c r="I30" s="26"/>
     </row>
     <row r="31" spans="1:10" customHeight="1" ht="409.6">
       <c r="A31" s="4"/>
@@ -996,7 +1553,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4"/>
       <c r="G31" s="3"/>
-      <c r="I31" s="27"/>
+      <c r="I31" s="26"/>
     </row>
     <row r="32" spans="1:10" customHeight="1" ht="409.6">
       <c r="A32" s="4"/>
@@ -1006,7 +1563,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4"/>
       <c r="G32" s="3"/>
-      <c r="I32" s="27"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:10" customHeight="1" ht="409.6">
       <c r="A33" s="4"/>
@@ -1016,7 +1573,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4"/>
       <c r="G33" s="3"/>
-      <c r="I33" s="27"/>
+      <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:10" customHeight="1" ht="409.6">
       <c r="A34" s="4"/>
@@ -1026,7 +1583,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4"/>
       <c r="G34" s="3"/>
-      <c r="I34" s="27"/>
+      <c r="I34" s="26"/>
     </row>
     <row r="35" spans="1:10" customHeight="1" ht="409.6">
       <c r="A35" s="4"/>
@@ -1036,7 +1593,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4"/>
       <c r="G35" s="3"/>
-      <c r="I35" s="27"/>
+      <c r="I35" s="26"/>
     </row>
     <row r="36" spans="1:10" customHeight="1" ht="409.6">
       <c r="A36" s="4"/>

--- a/export_calendar.xlsx
+++ b/export_calendar.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="7485"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$A$1:$I$26</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>June 2020</t>
+  </si>
   <si>
     <t>Activity Title</t>
   </si>
@@ -46,40 +49,182 @@
   </si>
   <si>
     <t>Posted Date</t>
+  </si>
+  <si>
+    <t>Assistance on the Development/Updating of RRAP (RGAF)</t>
+  </si>
+  <si>
+    <t>June 01, 2020</t>
+  </si>
+  <si>
+    <t>June 03, 2020</t>
+  </si>
+  <si>
+    <t>LGCDD</t>
+  </si>
+  <si>
+    <t>to be determined</t>
+  </si>
+  <si>
+    <t>regional focal person, FOs, housing officers</t>
+  </si>
+  <si>
+    <t>krgogolin</t>
+  </si>
+  <si>
+    <t>February 13, 2020</t>
+  </si>
+  <si>
+    <t>RGAF Quarterly Site Inspection in Baras, Rizal</t>
+  </si>
+  <si>
+    <t>June 18, 2020</t>
+  </si>
+  <si>
+    <t>housing officers, regional focal person, concerned LGUs</t>
+  </si>
+  <si>
+    <t>KATROPA/MOVE Orientation</t>
+  </si>
+  <si>
+    <t>RGAF Quarterly Site Inspection in TMC</t>
+  </si>
+  <si>
+    <t>June 16, 2020</t>
+  </si>
+  <si>
+    <t>TMC</t>
+  </si>
+  <si>
+    <t>Housing officers, regional focal person, concerned LGUs</t>
+  </si>
+  <si>
+    <t>Rationalization of Fees and Charges cum Integration of Brgy. Clearance</t>
+  </si>
+  <si>
+    <t>June 22, 2020</t>
+  </si>
+  <si>
+    <t>June 26, 2020</t>
+  </si>
+  <si>
+    <t>C/M Treasurer, BPLO, LNB President, Secretary, SB Member on Appropriations</t>
+  </si>
+  <si>
+    <t>RGAF Quarterly Site Inspection in Tanay</t>
+  </si>
+  <si>
+    <t>June 23, 2020</t>
+  </si>
+  <si>
+    <t>RGAF Quarterly Site Inspection in Rodriguez</t>
+  </si>
+  <si>
+    <t>June 25, 2020</t>
+  </si>
+  <si>
+    <t>housing officers, regional focal person, concerned LGU</t>
+  </si>
+  <si>
+    <t>MSAC 2nd Quarterly Meeting</t>
+  </si>
+  <si>
+    <t>MSAC members, regional &amp; provincial focal persons</t>
+  </si>
+  <si>
+    <t>Workshop on the Updating of 10 Yr Solid Waste Management Plan</t>
+  </si>
+  <si>
+    <t>LGCDD-MBRTG</t>
+  </si>
+  <si>
+    <t>LCE, SB on Environment, Planning Officer, CENRO  All LGUs in Cavite, Laguna and Rizal</t>
+  </si>
+  <si>
+    <t>caporras</t>
+  </si>
+  <si>
+    <t>February 17, 2020</t>
+  </si>
+  <si>
+    <t>Orientation of SWM under RA 9003 in support to the SC Mandamus</t>
+  </si>
+  <si>
+    <t>June 19, 2020</t>
+  </si>
+  <si>
+    <t>LCE, SB on Environment, CENRO  All LGUs covered</t>
+  </si>
+  <si>
+    <t>Orientation of CASABWATCH Program</t>
+  </si>
+  <si>
+    <t>Orientation on the Fisheries Laws and Formulation of Local Fisheries Ordinance</t>
+  </si>
+  <si>
+    <t>June 30, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCE, SB on Environment, Municipal Agriculturist 
+All LGUs covered
+</t>
+  </si>
+  <si>
+    <t>February 18, 2020</t>
+  </si>
+  <si>
+    <t>Mangrove/Tree Planting in Celebration of Arbor Day</t>
+  </si>
+  <si>
+    <t>Sponsored LGU/Barangay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -94,112 +239,110 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -208,35 +351,26 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>916373</xdr:colOff>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2684898" cy="495088"/>
+    <xdr:ext cx="2686050" cy="495300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="1" name="Picture 1" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="916373" y="190501"/>
-          <a:ext cx="2684898" cy="495088"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -249,12 +383,12 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="742950" cy="735046"/>
+    <xdr:ext cx="742950" cy="733425"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2" descr=""/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -266,10 +400,7 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="66676"/>
-          <a:ext cx="742950" cy="735046"/>
-        </a:xfrm>
+        <a:xfrm rot="0"/>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -566,27 +697,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10" customWidth="true" style="0"/>
+    <col min="3" max="3" width="9" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.140625" customWidth="true" style="0"/>
+    <col min="5" max="5" width="25" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.28515625" customWidth="true" style="0"/>
+    <col min="7" max="7" width="13.7109375" customWidth="true" style="0"/>
+    <col min="8" max="8" width="9.7109375" customWidth="true" style="0"/>
+    <col min="9" max="9" width="11.5703125" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -597,7 +731,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -608,7 +742,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -619,8 +753,10 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:9" customHeight="1" ht="23.25">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -630,7 +766,7 @@
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" customHeight="1" ht="23.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -641,36 +777,36 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" customHeight="1" ht="27">
       <c r="A7" s="8"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -681,161 +817,413 @@
       <c r="H7" s="3"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" customHeight="1" ht="100">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="11">
+        <v>50</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" customHeight="1" ht="100">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" customHeight="1" ht="100">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" customHeight="1" ht="100">
+      <c r="A11" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" customHeight="1" ht="100">
+      <c r="A12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="11">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" customHeight="1" ht="100">
+      <c r="A13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="11">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" customHeight="1" ht="100">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="11">
+        <v>10</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" customHeight="1" ht="100">
+      <c r="A15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="11">
+        <v>10</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" customHeight="1" ht="100">
+      <c r="A16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="11">
+        <v>50</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" customHeight="1" ht="100">
+      <c r="A17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="11">
+        <v>100</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" customHeight="1" ht="100">
+      <c r="A18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="11">
+        <v>100</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" customHeight="1" ht="100">
+      <c r="A19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="11">
+        <v>100</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" customHeight="1" ht="100">
+      <c r="A20" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="11">
+        <v>50</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" customHeight="1" ht="100">
+      <c r="A21" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="11">
+        <v>50</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -846,7 +1234,7 @@
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -857,7 +1245,7 @@
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -868,7 +1256,7 @@
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -879,7 +1267,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -891,7 +1279,8 @@
       <c r="I26" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A4:I5"/>
@@ -903,35 +1292,76 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
   </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="landscape" scale="99" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="9" max="25" man="1"/>
+    <brk id="9" man="1"/>
   </colBreaks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>